--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.585371461861733</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.179205854981954</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.20421166044385</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21.99842994967926</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>29.84332676235126</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.02595603930642</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.47157167137903</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.705432909705</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.307497445381657</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8.136578695098905</v>
+      </c>
+      <c r="D3">
+        <v>4.192444343998559</v>
+      </c>
+      <c r="E3">
+        <v>9.760390089210592</v>
+      </c>
+      <c r="F3">
+        <v>21.46753170229128</v>
+      </c>
+      <c r="G3">
+        <v>29.02227225921008</v>
+      </c>
+      <c r="H3">
+        <v>10.06806498350472</v>
+      </c>
+      <c r="I3">
+        <v>18.19139779195625</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>23.03980425127525</v>
+      </c>
+      <c r="L3">
+        <v>6.172908933840682</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.852214927206623</v>
+      </c>
+      <c r="D4">
+        <v>4.202058376739784</v>
+      </c>
+      <c r="E4">
+        <v>9.484726316059312</v>
+      </c>
+      <c r="F4">
+        <v>21.17573518731708</v>
+      </c>
+      <c r="G4">
+        <v>28.57692116641572</v>
+      </c>
+      <c r="H4">
+        <v>10.10857429564528</v>
+      </c>
+      <c r="I4">
+        <v>18.04776337182224</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>21.95937259976105</v>
+      </c>
+      <c r="L4">
+        <v>6.093374817518722</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>7.734231456687904</v>
+      </c>
+      <c r="D5">
+        <v>4.206333318678985</v>
+      </c>
+      <c r="E5">
+        <v>9.371733523650098</v>
+      </c>
+      <c r="F5">
+        <v>21.06524978149065</v>
+      </c>
+      <c r="G5">
+        <v>28.40991662750116</v>
+      </c>
+      <c r="H5">
+        <v>10.12853757993634</v>
+      </c>
+      <c r="I5">
+        <v>17.99610797123877</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>21.50444748154111</v>
+      </c>
+      <c r="L5">
+        <v>6.061753709908677</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>7.714517097330755</v>
+      </c>
+      <c r="D6">
+        <v>4.207064293657014</v>
+      </c>
+      <c r="E6">
+        <v>9.352935811385363</v>
+      </c>
+      <c r="F6">
+        <v>21.04740674663225</v>
+      </c>
+      <c r="G6">
+        <v>28.38304952070357</v>
+      </c>
+      <c r="H6">
+        <v>10.13205460167407</v>
+      </c>
+      <c r="I6">
+        <v>17.98793779699692</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>21.42801979724999</v>
+      </c>
+      <c r="L6">
+        <v>6.056551002307449</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>7.850632111253806</v>
+      </c>
+      <c r="D7">
+        <v>4.202114604440088</v>
+      </c>
+      <c r="E7">
+        <v>9.483204923575011</v>
+      </c>
+      <c r="F7">
+        <v>21.17421128980168</v>
+      </c>
+      <c r="G7">
+        <v>28.5746107247246</v>
+      </c>
+      <c r="H7">
+        <v>10.10882983442513</v>
+      </c>
+      <c r="I7">
+        <v>18.04703925100743</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>21.95329675763645</v>
+      </c>
+      <c r="L7">
+        <v>6.09294515496704</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>8.432513774835233</v>
+      </c>
+      <c r="D8">
+        <v>4.183451725531928</v>
+      </c>
+      <c r="E8">
+        <v>10.05191198358399</v>
+      </c>
+      <c r="F8">
+        <v>21.8081931254023</v>
+      </c>
+      <c r="G8">
+        <v>29.54787495067112</v>
+      </c>
+      <c r="H8">
+        <v>10.03729342788888</v>
+      </c>
+      <c r="I8">
+        <v>18.36892432772844</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>24.14302844487422</v>
+      </c>
+      <c r="L8">
+        <v>6.260452706739445</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9.500076854861037</v>
+      </c>
+      <c r="D9">
+        <v>4.159480100619579</v>
+      </c>
+      <c r="E9">
+        <v>11.1372474941475</v>
+      </c>
+      <c r="F9">
+        <v>23.32830310034151</v>
+      </c>
+      <c r="G9">
+        <v>31.93190618041967</v>
+      </c>
+      <c r="H9">
+        <v>10.02388852908805</v>
+      </c>
+      <c r="I9">
+        <v>19.2358757284901</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>27.98507381908734</v>
+      </c>
+      <c r="L9">
+        <v>6.613189900270735</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10.23625409494442</v>
+      </c>
+      <c r="D10">
+        <v>4.150899421275297</v>
+      </c>
+      <c r="E10">
+        <v>11.91152680888113</v>
+      </c>
+      <c r="F10">
+        <v>24.61987799807019</v>
+      </c>
+      <c r="G10">
+        <v>33.98136580456453</v>
+      </c>
+      <c r="H10">
+        <v>10.10627976731435</v>
+      </c>
+      <c r="I10">
+        <v>20.0291797101777</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>30.54131825434639</v>
+      </c>
+      <c r="L10">
+        <v>6.886784019398067</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>10.56038680705475</v>
+      </c>
+      <c r="D11">
+        <v>4.14930633664637</v>
+      </c>
+      <c r="E11">
+        <v>12.25816787719774</v>
+      </c>
+      <c r="F11">
+        <v>25.24641135532868</v>
+      </c>
+      <c r="G11">
+        <v>34.97946233571326</v>
+      </c>
+      <c r="H11">
+        <v>10.16706273622345</v>
+      </c>
+      <c r="I11">
+        <v>20.42636860930763</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>31.64852768342454</v>
+      </c>
+      <c r="L11">
+        <v>7.014374027391512</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>10.68157614111444</v>
+      </c>
+      <c r="D12">
+        <v>4.149069221777332</v>
+      </c>
+      <c r="E12">
+        <v>12.3886095032697</v>
+      </c>
+      <c r="F12">
+        <v>25.48935772093635</v>
+      </c>
+      <c r="G12">
+        <v>35.36696436663744</v>
+      </c>
+      <c r="H12">
+        <v>10.19370238764983</v>
+      </c>
+      <c r="I12">
+        <v>20.58217414702763</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>32.05999318305501</v>
+      </c>
+      <c r="L12">
+        <v>7.063144013090322</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>10.65554482844165</v>
+      </c>
+      <c r="D13">
+        <v>4.149103416312946</v>
+      </c>
+      <c r="E13">
+        <v>12.36055330714552</v>
+      </c>
+      <c r="F13">
+        <v>25.43678013714479</v>
+      </c>
+      <c r="G13">
+        <v>35.28308261829397</v>
+      </c>
+      <c r="H13">
+        <v>10.18779961935904</v>
+      </c>
+      <c r="I13">
+        <v>20.54837568935843</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>31.9717209089402</v>
+      </c>
+      <c r="L13">
+        <v>7.05262018116309</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>10.57038822109571</v>
+      </c>
+      <c r="D14">
+        <v>4.149279280747791</v>
+      </c>
+      <c r="E14">
+        <v>12.26891594173559</v>
+      </c>
+      <c r="F14">
+        <v>25.26628406223754</v>
+      </c>
+      <c r="G14">
+        <v>35.0111504569504</v>
+      </c>
+      <c r="H14">
+        <v>10.16918023841609</v>
+      </c>
+      <c r="I14">
+        <v>20.43907760723088</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>31.68253458959713</v>
+      </c>
+      <c r="L14">
+        <v>7.018377210440963</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>10.51802523560094</v>
+      </c>
+      <c r="D15">
+        <v>4.149435768619753</v>
+      </c>
+      <c r="E15">
+        <v>12.21267787164474</v>
+      </c>
+      <c r="F15">
+        <v>25.16259441892854</v>
+      </c>
+      <c r="G15">
+        <v>34.84583026403141</v>
+      </c>
+      <c r="H15">
+        <v>10.15825515546841</v>
+      </c>
+      <c r="I15">
+        <v>20.3728377203484</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>31.50438835110855</v>
+      </c>
+      <c r="L15">
+        <v>6.997461808980946</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10.21485393033976</v>
+      </c>
+      <c r="D16">
+        <v>4.151052824792006</v>
+      </c>
+      <c r="E16">
+        <v>11.88875836615191</v>
+      </c>
+      <c r="F16">
+        <v>24.57972397698714</v>
+      </c>
+      <c r="G16">
+        <v>33.91746812435227</v>
+      </c>
+      <c r="H16">
+        <v>10.10279955949088</v>
+      </c>
+      <c r="I16">
+        <v>20.00396831665115</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>30.46785581467516</v>
+      </c>
+      <c r="L16">
+        <v>6.878508938062401</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10.02610363687232</v>
+      </c>
+      <c r="D17">
+        <v>4.152659363406945</v>
+      </c>
+      <c r="E17">
+        <v>11.6885925187419</v>
+      </c>
+      <c r="F17">
+        <v>24.23219297669754</v>
+      </c>
+      <c r="G17">
+        <v>33.36484837919084</v>
+      </c>
+      <c r="H17">
+        <v>10.07494062244217</v>
+      </c>
+      <c r="I17">
+        <v>19.78710563151395</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>29.81785664506208</v>
+      </c>
+      <c r="L17">
+        <v>6.806338252296107</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>9.916526167655952</v>
+      </c>
+      <c r="D18">
+        <v>4.153798582674013</v>
+      </c>
+      <c r="E18">
+        <v>11.57293684890708</v>
+      </c>
+      <c r="F18">
+        <v>24.03596646033827</v>
+      </c>
+      <c r="G18">
+        <v>33.05318228476142</v>
+      </c>
+      <c r="H18">
+        <v>10.06109393601641</v>
+      </c>
+      <c r="I18">
+        <v>19.6657795030458</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>29.43874504660559</v>
+      </c>
+      <c r="L18">
+        <v>6.765121683621602</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>9.879251520185388</v>
+      </c>
+      <c r="D19">
+        <v>4.154220296017864</v>
+      </c>
+      <c r="E19">
+        <v>11.53368855864912</v>
+      </c>
+      <c r="F19">
+        <v>23.97015455491568</v>
+      </c>
+      <c r="G19">
+        <v>32.94871791357694</v>
+      </c>
+      <c r="H19">
+        <v>10.05677133627962</v>
+      </c>
+      <c r="I19">
+        <v>19.62528038907809</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>29.30947726450139</v>
+      </c>
+      <c r="L19">
+        <v>6.751216938837532</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>10.0463013914559</v>
+      </c>
+      <c r="D20">
+        <v>4.152465842188599</v>
+      </c>
+      <c r="E20">
+        <v>11.70995513125189</v>
+      </c>
+      <c r="F20">
+        <v>24.2688084683817</v>
+      </c>
+      <c r="G20">
+        <v>33.42303494600415</v>
+      </c>
+      <c r="H20">
+        <v>10.07767897463492</v>
+      </c>
+      <c r="I20">
+        <v>19.8098370809543</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>29.88759211768487</v>
+      </c>
+      <c r="L20">
+        <v>6.813990494704723</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>10.59544288739065</v>
+      </c>
+      <c r="D21">
+        <v>4.14921739548793</v>
+      </c>
+      <c r="E21">
+        <v>12.29585447491261</v>
+      </c>
+      <c r="F21">
+        <v>25.31620763264649</v>
+      </c>
+      <c r="G21">
+        <v>35.09076362919711</v>
+      </c>
+      <c r="H21">
+        <v>10.17454872104264</v>
+      </c>
+      <c r="I21">
+        <v>20.47103316584206</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>31.7676860067417</v>
+      </c>
+      <c r="L21">
+        <v>7.028422804423494</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>10.94529677439452</v>
+      </c>
+      <c r="D22">
+        <v>4.149247586776931</v>
+      </c>
+      <c r="E22">
+        <v>12.67397747824067</v>
+      </c>
+      <c r="F22">
+        <v>26.03397763225417</v>
+      </c>
+      <c r="G22">
+        <v>36.23642541265302</v>
+      </c>
+      <c r="H22">
+        <v>10.25909967284892</v>
+      </c>
+      <c r="I22">
+        <v>20.93471601991333</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>32.9510094980493</v>
+      </c>
+      <c r="L22">
+        <v>7.171221955353974</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>10.75939830840223</v>
+      </c>
+      <c r="D23">
+        <v>4.149022061354709</v>
+      </c>
+      <c r="E23">
+        <v>12.47260623336195</v>
+      </c>
+      <c r="F23">
+        <v>25.64781489610878</v>
+      </c>
+      <c r="G23">
+        <v>35.61982821887891</v>
+      </c>
+      <c r="H23">
+        <v>10.21193976575073</v>
+      </c>
+      <c r="I23">
+        <v>20.68429334249367</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>32.32353693482251</v>
+      </c>
+      <c r="L23">
+        <v>7.094761375000195</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>10.03717329515836</v>
+      </c>
+      <c r="D24">
+        <v>4.152552664101104</v>
+      </c>
+      <c r="E24">
+        <v>11.70029889153898</v>
+      </c>
+      <c r="F24">
+        <v>24.25224347940936</v>
+      </c>
+      <c r="G24">
+        <v>33.39670998422115</v>
+      </c>
+      <c r="H24">
+        <v>10.07643422777239</v>
+      </c>
+      <c r="I24">
+        <v>19.79954976800999</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>29.8560816018479</v>
+      </c>
+      <c r="L24">
+        <v>6.810530058584227</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>9.219563707654945</v>
+      </c>
+      <c r="D25">
+        <v>4.164485954947297</v>
+      </c>
+      <c r="E25">
+        <v>10.8474247666438</v>
+      </c>
+      <c r="F25">
+        <v>22.88673635768712</v>
+      </c>
+      <c r="G25">
+        <v>31.23503954050237</v>
+      </c>
+      <c r="H25">
+        <v>10.01241260988197</v>
+      </c>
+      <c r="I25">
+        <v>18.97471935858264</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>26.99319424286721</v>
+      </c>
+      <c r="L25">
+        <v>6.515212753090789</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.585371461861733</v>
+        <v>9.636383089362395</v>
       </c>
       <c r="D2">
-        <v>4.179205854981954</v>
+        <v>6.010696939438567</v>
       </c>
       <c r="E2">
-        <v>10.20421166044385</v>
+        <v>12.62372203873266</v>
       </c>
       <c r="F2">
-        <v>21.99842994967926</v>
+        <v>29.95522511061474</v>
       </c>
       <c r="G2">
-        <v>29.84332676235126</v>
+        <v>38.64779909504731</v>
       </c>
       <c r="H2">
-        <v>10.02595603930642</v>
+        <v>16.70132783096943</v>
       </c>
       <c r="I2">
-        <v>18.47157167137903</v>
+        <v>27.24773208812358</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.705432909705</v>
+        <v>18.18271571215051</v>
       </c>
       <c r="L2">
-        <v>6.307497445381657</v>
+        <v>9.581209994965675</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.136578695098905</v>
+        <v>9.547331846453609</v>
       </c>
       <c r="D3">
-        <v>4.192444343998559</v>
+        <v>6.018512708247147</v>
       </c>
       <c r="E3">
-        <v>9.760390089210592</v>
+        <v>12.56804852434917</v>
       </c>
       <c r="F3">
-        <v>21.46753170229128</v>
+        <v>30.04987995860623</v>
       </c>
       <c r="G3">
-        <v>29.02227225921008</v>
+        <v>38.79532445480987</v>
       </c>
       <c r="H3">
-        <v>10.06806498350472</v>
+        <v>16.78753589879139</v>
       </c>
       <c r="I3">
-        <v>18.19139779195625</v>
+        <v>27.3525402868805</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.03980425127525</v>
+        <v>17.57340346693814</v>
       </c>
       <c r="L3">
-        <v>6.172908933840682</v>
+        <v>9.586342412800489</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.852214927206623</v>
+        <v>9.493779580181203</v>
       </c>
       <c r="D4">
-        <v>4.202058376739784</v>
+        <v>6.02391358239328</v>
       </c>
       <c r="E4">
-        <v>9.484726316059312</v>
+        <v>12.53642413250304</v>
       </c>
       <c r="F4">
-        <v>21.17573518731708</v>
+        <v>30.11986416655657</v>
       </c>
       <c r="G4">
-        <v>28.57692116641572</v>
+        <v>38.90478982296467</v>
       </c>
       <c r="H4">
-        <v>10.10857429564528</v>
+        <v>16.84490744038716</v>
       </c>
       <c r="I4">
-        <v>18.04776337182224</v>
+        <v>27.42597975358888</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.95937259976105</v>
+        <v>17.18994541480551</v>
       </c>
       <c r="L4">
-        <v>6.093374817518722</v>
+        <v>9.591241589598825</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.734231456687904</v>
+        <v>9.472259073193451</v>
       </c>
       <c r="D5">
-        <v>4.206333318678985</v>
+        <v>6.02626615255789</v>
       </c>
       <c r="E5">
-        <v>9.371733523650098</v>
+        <v>12.52418951357719</v>
       </c>
       <c r="F5">
-        <v>21.06524978149065</v>
+        <v>30.15134521616777</v>
       </c>
       <c r="G5">
-        <v>28.40991662750116</v>
+        <v>38.95410015471062</v>
       </c>
       <c r="H5">
-        <v>10.12853757993634</v>
+        <v>16.86939905827029</v>
       </c>
       <c r="I5">
-        <v>17.99610797123877</v>
+        <v>27.45817771589702</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.50444748154111</v>
+        <v>17.03155992607399</v>
       </c>
       <c r="L5">
-        <v>6.061753709908677</v>
+        <v>9.593677424172954</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.714517097330755</v>
+        <v>9.468704435656955</v>
       </c>
       <c r="D6">
-        <v>4.207064293657014</v>
+        <v>6.026665964513659</v>
       </c>
       <c r="E6">
-        <v>9.352935811385363</v>
+        <v>12.52219762498908</v>
       </c>
       <c r="F6">
-        <v>21.04740674663225</v>
+        <v>30.1567508497529</v>
       </c>
       <c r="G6">
-        <v>28.38304952070357</v>
+        <v>38.96257070443351</v>
       </c>
       <c r="H6">
-        <v>10.13205460167407</v>
+        <v>16.87353293102897</v>
       </c>
       <c r="I6">
-        <v>17.98793779699692</v>
+        <v>27.46366088931607</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.42801979724999</v>
+        <v>17.00513886306904</v>
       </c>
       <c r="L6">
-        <v>6.056551002307449</v>
+        <v>9.594108423418982</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.850632111253806</v>
+        <v>9.493488097085072</v>
       </c>
       <c r="D7">
-        <v>4.202114604440088</v>
+        <v>6.023944695494706</v>
       </c>
       <c r="E7">
-        <v>9.483204923575011</v>
+        <v>12.5362564786191</v>
       </c>
       <c r="F7">
-        <v>21.17421128980168</v>
+        <v>30.12027676824757</v>
       </c>
       <c r="G7">
-        <v>28.5746107247246</v>
+        <v>38.90543586308062</v>
       </c>
       <c r="H7">
-        <v>10.10882983442513</v>
+        <v>16.84523324490358</v>
       </c>
       <c r="I7">
-        <v>18.04703925100743</v>
+        <v>27.42640481143669</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.95329675763645</v>
+        <v>17.18781765773217</v>
       </c>
       <c r="L7">
-        <v>6.09294515496704</v>
+        <v>9.591272661368876</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.432513774835233</v>
+        <v>9.60545643589057</v>
       </c>
       <c r="D8">
-        <v>4.183451725531928</v>
+        <v>6.013267058169433</v>
       </c>
       <c r="E8">
-        <v>10.05191198358399</v>
+        <v>12.60400026505069</v>
       </c>
       <c r="F8">
-        <v>21.8081931254023</v>
+        <v>29.98538664067972</v>
       </c>
       <c r="G8">
-        <v>29.54787495067112</v>
+        <v>38.69471936463211</v>
       </c>
       <c r="H8">
-        <v>10.03729342788888</v>
+        <v>16.73012850509926</v>
       </c>
       <c r="I8">
-        <v>18.36892432772844</v>
+        <v>27.28197561121608</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.14302844487422</v>
+        <v>17.97469163793984</v>
       </c>
       <c r="L8">
-        <v>6.260452706739445</v>
+        <v>9.582616847775876</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.500076854861037</v>
+        <v>9.833080182242675</v>
       </c>
       <c r="D9">
-        <v>4.159480100619579</v>
+        <v>5.997092000134165</v>
       </c>
       <c r="E9">
-        <v>11.1372474941475</v>
+        <v>12.75672039351577</v>
       </c>
       <c r="F9">
-        <v>23.32830310034151</v>
+        <v>29.81592852174636</v>
       </c>
       <c r="G9">
-        <v>31.93190618041967</v>
+        <v>38.43328124771144</v>
       </c>
       <c r="H9">
-        <v>10.02388852908805</v>
+        <v>16.53981701278573</v>
       </c>
       <c r="I9">
-        <v>19.2358757284901</v>
+        <v>27.07146157320619</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.98507381908734</v>
+        <v>19.43479264924039</v>
       </c>
       <c r="L9">
-        <v>6.613189900270735</v>
+        <v>9.579512322617404</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.23625409494442</v>
+        <v>10.00402756910474</v>
       </c>
       <c r="D10">
-        <v>4.150899421275297</v>
+        <v>5.988096554987844</v>
       </c>
       <c r="E10">
-        <v>11.91152680888113</v>
+        <v>12.88040955768009</v>
       </c>
       <c r="F10">
-        <v>24.61987799807019</v>
+        <v>29.75052627163184</v>
       </c>
       <c r="G10">
-        <v>33.98136580456453</v>
+        <v>38.33617289318587</v>
       </c>
       <c r="H10">
-        <v>10.10627976731435</v>
+        <v>16.42183400071336</v>
       </c>
       <c r="I10">
-        <v>20.0291797101777</v>
+        <v>26.96192525001791</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.54131825434639</v>
+        <v>20.44646835737742</v>
       </c>
       <c r="L10">
-        <v>6.886784019398067</v>
+        <v>9.585681079001288</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.56038680705475</v>
+        <v>10.08234313936237</v>
       </c>
       <c r="D11">
-        <v>4.14930633664637</v>
+        <v>5.984628325748912</v>
       </c>
       <c r="E11">
-        <v>12.25816787719774</v>
+        <v>12.93902365177949</v>
       </c>
       <c r="F11">
-        <v>25.24641135532868</v>
+        <v>29.73381712125017</v>
       </c>
       <c r="G11">
-        <v>34.97946233571326</v>
+        <v>38.31307096993181</v>
       </c>
       <c r="H11">
-        <v>10.16706273622345</v>
+        <v>16.37295756970278</v>
       </c>
       <c r="I11">
-        <v>20.42636860930763</v>
+        <v>26.92205265049627</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.64852768342454</v>
+        <v>20.89160503050753</v>
       </c>
       <c r="L11">
-        <v>7.014374027391512</v>
+        <v>9.590317813588332</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.68157614111444</v>
+        <v>10.11205659232406</v>
       </c>
       <c r="D12">
-        <v>4.149069221777332</v>
+        <v>5.983404448177032</v>
       </c>
       <c r="E12">
-        <v>12.3886095032697</v>
+        <v>12.9615432116446</v>
       </c>
       <c r="F12">
-        <v>25.48935772093635</v>
+        <v>29.72937984198725</v>
       </c>
       <c r="G12">
-        <v>35.36696436663744</v>
+        <v>38.3073847499272</v>
       </c>
       <c r="H12">
-        <v>10.19370238764983</v>
+        <v>16.35514345028933</v>
       </c>
       <c r="I12">
-        <v>20.58217414702763</v>
+        <v>26.90839759459683</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.05999318305501</v>
+        <v>21.05786784790763</v>
       </c>
       <c r="L12">
-        <v>7.063144013090322</v>
+        <v>9.592336166528021</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.65554482844165</v>
+        <v>10.1056550826828</v>
       </c>
       <c r="D13">
-        <v>4.149103416312946</v>
+        <v>5.983664056887558</v>
       </c>
       <c r="E13">
-        <v>12.36055330714552</v>
+        <v>12.95667905262934</v>
       </c>
       <c r="F13">
-        <v>25.43678013714479</v>
+        <v>29.73025121433993</v>
       </c>
       <c r="G13">
-        <v>35.28308261829397</v>
+        <v>38.30847273517487</v>
       </c>
       <c r="H13">
-        <v>10.18779961935904</v>
+        <v>16.35894908166667</v>
       </c>
       <c r="I13">
-        <v>20.54837568935843</v>
+        <v>26.91127405469111</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.9717209089402</v>
+        <v>21.02216444241903</v>
       </c>
       <c r="L13">
-        <v>7.05262018116309</v>
+        <v>9.591889815423842</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.57038822109571</v>
+        <v>10.08478666612949</v>
       </c>
       <c r="D14">
-        <v>4.149279280747791</v>
+        <v>5.984525844948566</v>
       </c>
       <c r="E14">
-        <v>12.26891594173559</v>
+        <v>12.94086994398621</v>
       </c>
       <c r="F14">
-        <v>25.26628406223754</v>
+        <v>29.73341410620542</v>
       </c>
       <c r="G14">
-        <v>35.0111504569504</v>
+        <v>38.31254162741654</v>
       </c>
       <c r="H14">
-        <v>10.16918023841609</v>
+        <v>16.37147804814611</v>
       </c>
       <c r="I14">
-        <v>20.43907760723088</v>
+        <v>26.92090023728559</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.68253458959713</v>
+        <v>20.90533038535476</v>
       </c>
       <c r="L14">
-        <v>7.018377210440963</v>
+        <v>9.590478608015127</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.51802523560094</v>
+        <v>10.07201093232995</v>
       </c>
       <c r="D15">
-        <v>4.149435768619753</v>
+        <v>5.98506535899101</v>
       </c>
       <c r="E15">
-        <v>12.21267787164474</v>
+        <v>12.93122813946242</v>
       </c>
       <c r="F15">
-        <v>25.16259441892854</v>
+        <v>29.73559801756964</v>
       </c>
       <c r="G15">
-        <v>34.84583026403141</v>
+        <v>38.31543357309226</v>
       </c>
       <c r="H15">
-        <v>10.15825515546841</v>
+        <v>16.37924296813674</v>
       </c>
       <c r="I15">
-        <v>20.3728377203484</v>
+        <v>26.92698492985619</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.50438835110855</v>
+        <v>20.83346286589264</v>
       </c>
       <c r="L15">
-        <v>6.997461808980946</v>
+        <v>9.589648366996268</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.21485393033976</v>
+        <v>9.99891864876226</v>
       </c>
       <c r="D16">
-        <v>4.151052824792006</v>
+        <v>5.988335744383642</v>
       </c>
       <c r="E16">
-        <v>11.88875836615191</v>
+        <v>12.87662505018552</v>
       </c>
       <c r="F16">
-        <v>24.57972397698714</v>
+        <v>29.75188199693794</v>
       </c>
       <c r="G16">
-        <v>33.91746812435227</v>
+        <v>38.33810950310286</v>
       </c>
       <c r="H16">
-        <v>10.10279955949088</v>
+        <v>16.4251250856745</v>
       </c>
       <c r="I16">
-        <v>20.00396831665115</v>
+        <v>26.96473241609637</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.46785581467516</v>
+        <v>20.41706250816386</v>
       </c>
       <c r="L16">
-        <v>6.878508938062401</v>
+        <v>9.585414836024949</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.02610363687232</v>
+        <v>9.954204167651667</v>
       </c>
       <c r="D17">
-        <v>4.152659363406945</v>
+        <v>5.990501626666534</v>
       </c>
       <c r="E17">
-        <v>11.6885925187419</v>
+        <v>12.84371933935882</v>
       </c>
       <c r="F17">
-        <v>24.23219297669754</v>
+        <v>29.76522321848932</v>
       </c>
       <c r="G17">
-        <v>33.36484837919084</v>
+        <v>38.35744158901946</v>
       </c>
       <c r="H17">
-        <v>10.07494062244217</v>
+        <v>16.45450374946072</v>
       </c>
       <c r="I17">
-        <v>19.78710563151395</v>
+        <v>26.99044814650707</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.81785664506208</v>
+        <v>20.15765281432973</v>
       </c>
       <c r="L17">
-        <v>6.806338252296107</v>
+        <v>9.583286097167628</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.916526167655952</v>
+        <v>9.928538741521752</v>
       </c>
       <c r="D18">
-        <v>4.153798582674013</v>
+        <v>5.991806118103908</v>
       </c>
       <c r="E18">
-        <v>11.57293684890708</v>
+        <v>12.82501464944077</v>
       </c>
       <c r="F18">
-        <v>24.03596646033827</v>
+        <v>29.77412361943804</v>
       </c>
       <c r="G18">
-        <v>33.05318228476142</v>
+        <v>38.37054274892077</v>
       </c>
       <c r="H18">
-        <v>10.06109393601641</v>
+        <v>16.47185258092964</v>
       </c>
       <c r="I18">
-        <v>19.6657795030458</v>
+        <v>27.00617558102412</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.43874504660559</v>
+        <v>20.00703469638815</v>
       </c>
       <c r="L18">
-        <v>6.765121683621602</v>
+        <v>9.582234054710622</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.879251520185388</v>
+        <v>9.919858676303479</v>
       </c>
       <c r="D19">
-        <v>4.154220296017864</v>
+        <v>5.992257891458823</v>
       </c>
       <c r="E19">
-        <v>11.53368855864912</v>
+        <v>12.81872007082396</v>
       </c>
       <c r="F19">
-        <v>23.97015455491568</v>
+        <v>29.77734738449228</v>
       </c>
       <c r="G19">
-        <v>32.94871791357694</v>
+        <v>38.37531793160753</v>
       </c>
       <c r="H19">
-        <v>10.05677133627962</v>
+        <v>16.47780390929093</v>
       </c>
       <c r="I19">
-        <v>19.62528038907809</v>
+        <v>27.01166106916898</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.30947726450139</v>
+        <v>19.95579968370265</v>
       </c>
       <c r="L19">
-        <v>6.751216938837532</v>
+        <v>9.581907471544074</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.0463013914559</v>
+        <v>9.958958759370089</v>
       </c>
       <c r="D20">
-        <v>4.152465842188599</v>
+        <v>5.990264987959979</v>
       </c>
       <c r="E20">
-        <v>11.70995513125189</v>
+        <v>12.84719935110576</v>
       </c>
       <c r="F20">
-        <v>24.2688084683817</v>
+        <v>29.76367593344617</v>
       </c>
       <c r="G20">
-        <v>33.42303494600415</v>
+        <v>38.3551782992987</v>
       </c>
       <c r="H20">
-        <v>10.07767897463492</v>
+        <v>16.45132962868407</v>
       </c>
       <c r="I20">
-        <v>19.8098370809543</v>
+        <v>26.98761365625545</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.88759211768487</v>
+        <v>20.18541461923903</v>
       </c>
       <c r="L20">
-        <v>6.813990494704723</v>
+        <v>9.583494871896951</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.59544288739065</v>
+        <v>10.09091485357918</v>
       </c>
       <c r="D21">
-        <v>4.14921739548793</v>
+        <v>5.984270290732724</v>
       </c>
       <c r="E21">
-        <v>12.29585447491261</v>
+        <v>12.94550479122102</v>
       </c>
       <c r="F21">
-        <v>25.31620763264649</v>
+        <v>29.73243368432152</v>
       </c>
       <c r="G21">
-        <v>35.09076362919711</v>
+        <v>38.31126316135827</v>
       </c>
       <c r="H21">
-        <v>10.17454872104264</v>
+        <v>16.36777910434118</v>
       </c>
       <c r="I21">
-        <v>20.47103316584206</v>
+        <v>26.91803351570525</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.7676860067417</v>
+        <v>20.939710798687</v>
       </c>
       <c r="L21">
-        <v>7.028422804423494</v>
+        <v>9.590885995536121</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.94529677439452</v>
+        <v>10.17747813970853</v>
       </c>
       <c r="D22">
-        <v>4.149247586776931</v>
+        <v>5.980873775522939</v>
       </c>
       <c r="E22">
-        <v>12.67397747824067</v>
+        <v>13.01163289148473</v>
       </c>
       <c r="F22">
-        <v>26.03397763225417</v>
+        <v>29.72303748535031</v>
       </c>
       <c r="G22">
-        <v>36.23642541265302</v>
+        <v>38.30042144497264</v>
       </c>
       <c r="H22">
-        <v>10.25909967284892</v>
+        <v>16.31722333375589</v>
       </c>
       <c r="I22">
-        <v>20.93471601991333</v>
+        <v>26.88097973057363</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.9510094980493</v>
+        <v>21.41922578019476</v>
       </c>
       <c r="L22">
-        <v>7.171221955353974</v>
+        <v>9.597246254628457</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.75939830840223</v>
+        <v>10.13125546798799</v>
       </c>
       <c r="D23">
-        <v>4.149022061354709</v>
+        <v>5.982638933030772</v>
       </c>
       <c r="E23">
-        <v>12.47260623336195</v>
+        <v>12.97617179748276</v>
       </c>
       <c r="F23">
-        <v>25.64781489610878</v>
+        <v>29.72703954317051</v>
       </c>
       <c r="G23">
-        <v>35.61982821887891</v>
+        <v>38.30456432014721</v>
       </c>
       <c r="H23">
-        <v>10.21193976575073</v>
+        <v>16.34383377337858</v>
       </c>
       <c r="I23">
-        <v>20.68429334249367</v>
+        <v>26.89998170209933</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.32353693482251</v>
+        <v>21.16457099355474</v>
       </c>
       <c r="L23">
-        <v>7.094761375000195</v>
+        <v>9.593711971349734</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.03717329515836</v>
+        <v>9.956809077445097</v>
       </c>
       <c r="D24">
-        <v>4.152552664101104</v>
+        <v>5.990371787578816</v>
       </c>
       <c r="E24">
-        <v>11.70029889153898</v>
+        <v>12.84562537255132</v>
       </c>
       <c r="F24">
-        <v>24.25224347940936</v>
+        <v>29.76437162969789</v>
       </c>
       <c r="G24">
-        <v>33.39670998422115</v>
+        <v>38.35619534607925</v>
       </c>
       <c r="H24">
-        <v>10.07643422777239</v>
+        <v>16.45276322039028</v>
       </c>
       <c r="I24">
-        <v>19.79954976800999</v>
+        <v>26.9888921924918</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.8560816018479</v>
+        <v>20.17286810699487</v>
       </c>
       <c r="L24">
-        <v>6.810530058584227</v>
+        <v>9.583399949667422</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.219563707654945</v>
+        <v>9.770762320836139</v>
       </c>
       <c r="D25">
-        <v>4.164485954947297</v>
+        <v>6.000959441910164</v>
       </c>
       <c r="E25">
-        <v>10.8474247666438</v>
+        <v>12.71333993058136</v>
       </c>
       <c r="F25">
-        <v>22.88673635768712</v>
+        <v>29.85146982316831</v>
       </c>
       <c r="G25">
-        <v>31.23503954050237</v>
+        <v>38.4874937260667</v>
       </c>
       <c r="H25">
-        <v>10.01241260988197</v>
+        <v>16.58748461296988</v>
       </c>
       <c r="I25">
-        <v>18.97471935858264</v>
+        <v>27.12054186276638</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.99319424286721</v>
+        <v>19.0498347364429</v>
       </c>
       <c r="L25">
-        <v>6.515212753090789</v>
+        <v>9.57886729137166</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.636383089362395</v>
+        <v>8.585371461861643</v>
       </c>
       <c r="D2">
-        <v>6.010696939438567</v>
+        <v>4.179205854981841</v>
       </c>
       <c r="E2">
-        <v>12.62372203873266</v>
+        <v>10.20421166044383</v>
       </c>
       <c r="F2">
-        <v>29.95522511061474</v>
+        <v>21.99842994967896</v>
       </c>
       <c r="G2">
-        <v>38.64779909504731</v>
+        <v>29.84332676235081</v>
       </c>
       <c r="H2">
-        <v>16.70132783096943</v>
+        <v>10.02595603930625</v>
       </c>
       <c r="I2">
-        <v>27.24773208812358</v>
+        <v>18.47157167137873</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.18271571215051</v>
+        <v>24.70543290970516</v>
       </c>
       <c r="L2">
-        <v>9.581209994965675</v>
+        <v>6.307497445381673</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.547331846453609</v>
+        <v>8.136578695098889</v>
       </c>
       <c r="D3">
-        <v>6.018512708247147</v>
+        <v>4.192444343998507</v>
       </c>
       <c r="E3">
-        <v>12.56804852434917</v>
+        <v>9.760390089210613</v>
       </c>
       <c r="F3">
-        <v>30.04987995860623</v>
+        <v>21.46753170229131</v>
       </c>
       <c r="G3">
-        <v>38.79532445480987</v>
+        <v>29.02227225921015</v>
       </c>
       <c r="H3">
-        <v>16.78753589879139</v>
+        <v>10.0680649835047</v>
       </c>
       <c r="I3">
-        <v>27.3525402868805</v>
+        <v>18.19139779195628</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.57340346693814</v>
+        <v>23.03980425127521</v>
       </c>
       <c r="L3">
-        <v>9.586342412800489</v>
+        <v>6.172908933840733</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.493779580181203</v>
+        <v>7.852214927206639</v>
       </c>
       <c r="D4">
-        <v>6.02391358239328</v>
+        <v>4.202058376739766</v>
       </c>
       <c r="E4">
-        <v>12.53642413250304</v>
+        <v>9.484726316059385</v>
       </c>
       <c r="F4">
-        <v>30.11986416655657</v>
+        <v>21.1757351873173</v>
       </c>
       <c r="G4">
-        <v>38.90478982296467</v>
+        <v>28.57692116641615</v>
       </c>
       <c r="H4">
-        <v>16.84490744038716</v>
+        <v>10.10857429564542</v>
       </c>
       <c r="I4">
-        <v>27.42597975358888</v>
+        <v>18.04776337182243</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.18994541480551</v>
+        <v>21.95937259976098</v>
       </c>
       <c r="L4">
-        <v>9.591241589598825</v>
+        <v>6.093374817518748</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.472259073193451</v>
+        <v>7.734231456687889</v>
       </c>
       <c r="D5">
-        <v>6.02626615255789</v>
+        <v>4.20633331867923</v>
       </c>
       <c r="E5">
-        <v>12.52418951357719</v>
+        <v>9.371733523650056</v>
       </c>
       <c r="F5">
-        <v>30.15134521616777</v>
+        <v>21.0652497814906</v>
       </c>
       <c r="G5">
-        <v>38.95410015471062</v>
+        <v>28.40991662750121</v>
       </c>
       <c r="H5">
-        <v>16.86939905827029</v>
+        <v>10.12853757993635</v>
       </c>
       <c r="I5">
-        <v>27.45817771589702</v>
+        <v>17.99610797123878</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.03155992607399</v>
+        <v>21.50444748154114</v>
       </c>
       <c r="L5">
-        <v>9.593677424172954</v>
+        <v>6.061753709908654</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.468704435656955</v>
+        <v>7.714517097330758</v>
       </c>
       <c r="D6">
-        <v>6.026665964513659</v>
+        <v>4.207064293657202</v>
       </c>
       <c r="E6">
-        <v>12.52219762498908</v>
+        <v>9.352935811385295</v>
       </c>
       <c r="F6">
-        <v>30.1567508497529</v>
+        <v>21.04740674663235</v>
       </c>
       <c r="G6">
-        <v>38.96257070443351</v>
+        <v>28.38304952070389</v>
       </c>
       <c r="H6">
-        <v>16.87353293102897</v>
+        <v>10.13205460167409</v>
       </c>
       <c r="I6">
-        <v>27.46366088931607</v>
+        <v>17.98793779699705</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.00513886306904</v>
+        <v>21.42801979724996</v>
       </c>
       <c r="L6">
-        <v>9.594108423418982</v>
+        <v>6.056551002307438</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.493488097085072</v>
+        <v>7.850632111253822</v>
       </c>
       <c r="D7">
-        <v>6.023944695494706</v>
+        <v>4.202114604440228</v>
       </c>
       <c r="E7">
-        <v>12.5362564786191</v>
+        <v>9.483204923575043</v>
       </c>
       <c r="F7">
-        <v>30.12027676824757</v>
+        <v>21.17421128980186</v>
       </c>
       <c r="G7">
-        <v>38.90543586308062</v>
+        <v>28.57461072472499</v>
       </c>
       <c r="H7">
-        <v>16.84523324490358</v>
+        <v>10.10882983442522</v>
       </c>
       <c r="I7">
-        <v>27.42640481143669</v>
+        <v>18.04703925100759</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.18781765773217</v>
+        <v>21.95329675763639</v>
       </c>
       <c r="L7">
-        <v>9.591272661368876</v>
+        <v>6.092945154967081</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.60545643589057</v>
+        <v>8.432513774835249</v>
       </c>
       <c r="D8">
-        <v>6.013267058169433</v>
+        <v>4.183451725531868</v>
       </c>
       <c r="E8">
-        <v>12.60400026505069</v>
+        <v>10.05191198358395</v>
       </c>
       <c r="F8">
-        <v>29.98538664067972</v>
+        <v>21.80819312540231</v>
       </c>
       <c r="G8">
-        <v>38.69471936463211</v>
+        <v>29.5478749506711</v>
       </c>
       <c r="H8">
-        <v>16.73012850509926</v>
+        <v>10.03729342788887</v>
       </c>
       <c r="I8">
-        <v>27.28197561121608</v>
+        <v>18.36892432772842</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.97469163793984</v>
+        <v>24.14302844487424</v>
       </c>
       <c r="L8">
-        <v>9.582616847775876</v>
+        <v>6.260452706739408</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.833080182242675</v>
+        <v>9.500076854860975</v>
       </c>
       <c r="D9">
-        <v>5.997092000134165</v>
+        <v>4.159480100619579</v>
       </c>
       <c r="E9">
-        <v>12.75672039351577</v>
+        <v>11.1372474941475</v>
       </c>
       <c r="F9">
-        <v>29.81592852174636</v>
+        <v>23.32830310034164</v>
       </c>
       <c r="G9">
-        <v>38.43328124771144</v>
+        <v>31.93190618041974</v>
       </c>
       <c r="H9">
-        <v>16.53981701278573</v>
+        <v>10.02388852908821</v>
       </c>
       <c r="I9">
-        <v>27.07146157320619</v>
+        <v>19.23587572849023</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.43479264924039</v>
+        <v>27.98507381908727</v>
       </c>
       <c r="L9">
-        <v>9.579512322617404</v>
+        <v>6.613189900270765</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.00402756910474</v>
+        <v>10.23625409494442</v>
       </c>
       <c r="D10">
-        <v>5.988096554987844</v>
+        <v>4.150899421275229</v>
       </c>
       <c r="E10">
-        <v>12.88040955768009</v>
+        <v>11.91152680888113</v>
       </c>
       <c r="F10">
-        <v>29.75052627163184</v>
+        <v>24.61987799807017</v>
       </c>
       <c r="G10">
-        <v>38.33617289318587</v>
+        <v>33.98136580456445</v>
       </c>
       <c r="H10">
-        <v>16.42183400071336</v>
+        <v>10.10627976731434</v>
       </c>
       <c r="I10">
-        <v>26.96192525001791</v>
+        <v>20.02917971017767</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.44646835737742</v>
+        <v>30.54131825434639</v>
       </c>
       <c r="L10">
-        <v>9.585681079001288</v>
+        <v>6.886784019398096</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.08234313936237</v>
+        <v>10.56038680705476</v>
       </c>
       <c r="D11">
-        <v>5.984628325748912</v>
+        <v>4.149306336646395</v>
       </c>
       <c r="E11">
-        <v>12.93902365177949</v>
+        <v>12.25816787719773</v>
       </c>
       <c r="F11">
-        <v>29.73381712125017</v>
+        <v>25.24641135532859</v>
       </c>
       <c r="G11">
-        <v>38.31307096993181</v>
+        <v>34.97946233571319</v>
       </c>
       <c r="H11">
-        <v>16.37295756970278</v>
+        <v>10.16706273622336</v>
       </c>
       <c r="I11">
-        <v>26.92205265049627</v>
+        <v>20.42636860930753</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.89160503050753</v>
+        <v>31.64852768342465</v>
       </c>
       <c r="L11">
-        <v>9.590317813588332</v>
+        <v>7.014374027391453</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.11205659232406</v>
+        <v>10.68157614111442</v>
       </c>
       <c r="D12">
-        <v>5.983404448177032</v>
+        <v>4.149069221777276</v>
       </c>
       <c r="E12">
-        <v>12.9615432116446</v>
+        <v>12.3886095032697</v>
       </c>
       <c r="F12">
-        <v>29.72937984198725</v>
+        <v>25.48935772093635</v>
       </c>
       <c r="G12">
-        <v>38.3073847499272</v>
+        <v>35.36696436663748</v>
       </c>
       <c r="H12">
-        <v>16.35514345028933</v>
+        <v>10.19370238764975</v>
       </c>
       <c r="I12">
-        <v>26.90839759459683</v>
+        <v>20.58217414702758</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.05786784790763</v>
+        <v>32.05999318305512</v>
       </c>
       <c r="L12">
-        <v>9.592336166528021</v>
+        <v>7.063144013090309</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.1056550826828</v>
+        <v>10.65554482844167</v>
       </c>
       <c r="D13">
-        <v>5.983664056887558</v>
+        <v>4.149103416313243</v>
       </c>
       <c r="E13">
-        <v>12.95667905262934</v>
+        <v>12.36055330714553</v>
       </c>
       <c r="F13">
-        <v>29.73025121433993</v>
+        <v>25.43678013714477</v>
       </c>
       <c r="G13">
-        <v>38.30847273517487</v>
+        <v>35.28308261829402</v>
       </c>
       <c r="H13">
-        <v>16.35894908166667</v>
+        <v>10.18779961935904</v>
       </c>
       <c r="I13">
-        <v>26.91127405469111</v>
+        <v>20.54837568935847</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.02216444241903</v>
+        <v>31.97172090894016</v>
       </c>
       <c r="L13">
-        <v>9.591889815423842</v>
+        <v>7.052620181163078</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.08478666612949</v>
+        <v>10.57038822109568</v>
       </c>
       <c r="D14">
-        <v>5.984525844948566</v>
+        <v>4.149279280747692</v>
       </c>
       <c r="E14">
-        <v>12.94086994398621</v>
+        <v>12.26891594173557</v>
       </c>
       <c r="F14">
-        <v>29.73341410620542</v>
+        <v>25.2662840622376</v>
       </c>
       <c r="G14">
-        <v>38.31254162741654</v>
+        <v>35.01115045695046</v>
       </c>
       <c r="H14">
-        <v>16.37147804814611</v>
+        <v>10.16918023841612</v>
       </c>
       <c r="I14">
-        <v>26.92090023728559</v>
+        <v>20.43907760723094</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.90533038535476</v>
+        <v>31.68253458959709</v>
       </c>
       <c r="L14">
-        <v>9.590478608015127</v>
+        <v>7.01837721044094</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.07201093232995</v>
+        <v>10.51802523560089</v>
       </c>
       <c r="D15">
-        <v>5.98506535899101</v>
+        <v>4.14943576861992</v>
       </c>
       <c r="E15">
-        <v>12.93122813946242</v>
+        <v>12.21267787164474</v>
       </c>
       <c r="F15">
-        <v>29.73559801756964</v>
+        <v>25.1625944189285</v>
       </c>
       <c r="G15">
-        <v>38.31543357309226</v>
+        <v>34.84583026403143</v>
       </c>
       <c r="H15">
-        <v>16.37924296813674</v>
+        <v>10.15825515546838</v>
       </c>
       <c r="I15">
-        <v>26.92698492985619</v>
+        <v>20.37283772034838</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.83346286589264</v>
+        <v>31.5043883511086</v>
       </c>
       <c r="L15">
-        <v>9.589648366996268</v>
+        <v>6.997461808980927</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.99891864876226</v>
+        <v>10.21485393033977</v>
       </c>
       <c r="D16">
-        <v>5.988335744383642</v>
+        <v>4.151052824791996</v>
       </c>
       <c r="E16">
-        <v>12.87662505018552</v>
+        <v>11.88875836615194</v>
       </c>
       <c r="F16">
-        <v>29.75188199693794</v>
+        <v>24.57972397698717</v>
       </c>
       <c r="G16">
-        <v>38.33810950310286</v>
+        <v>33.91746812435229</v>
       </c>
       <c r="H16">
-        <v>16.4251250856745</v>
+        <v>10.10279955949093</v>
       </c>
       <c r="I16">
-        <v>26.96473241609637</v>
+        <v>20.00396831665121</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.41706250816386</v>
+        <v>30.46785581467513</v>
       </c>
       <c r="L16">
-        <v>9.585414836024949</v>
+        <v>6.878508938062419</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.954204167651667</v>
+        <v>10.02610363687235</v>
       </c>
       <c r="D17">
-        <v>5.990501626666534</v>
+        <v>4.152659363407055</v>
       </c>
       <c r="E17">
-        <v>12.84371933935882</v>
+        <v>11.68859251874192</v>
       </c>
       <c r="F17">
-        <v>29.76522321848932</v>
+        <v>24.23219297669755</v>
       </c>
       <c r="G17">
-        <v>38.35744158901946</v>
+        <v>33.36484837919089</v>
       </c>
       <c r="H17">
-        <v>16.45450374946072</v>
+        <v>10.07494062244215</v>
       </c>
       <c r="I17">
-        <v>26.99044814650707</v>
+        <v>19.78710563151399</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.15765281432973</v>
+        <v>29.81785664506208</v>
       </c>
       <c r="L17">
-        <v>9.583286097167628</v>
+        <v>6.806338252296136</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.928538741521752</v>
+        <v>9.916526167655922</v>
       </c>
       <c r="D18">
-        <v>5.991806118103908</v>
+        <v>4.153798582674087</v>
       </c>
       <c r="E18">
-        <v>12.82501464944077</v>
+        <v>11.57293684890704</v>
       </c>
       <c r="F18">
-        <v>29.77412361943804</v>
+        <v>24.03596646033823</v>
       </c>
       <c r="G18">
-        <v>38.37054274892077</v>
+        <v>33.05318228476135</v>
       </c>
       <c r="H18">
-        <v>16.47185258092964</v>
+        <v>10.06109393601632</v>
       </c>
       <c r="I18">
-        <v>27.00617558102412</v>
+        <v>19.66577950304573</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.00703469638815</v>
+        <v>29.43874504660554</v>
       </c>
       <c r="L18">
-        <v>9.582234054710622</v>
+        <v>6.76512168362162</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.919858676303479</v>
+        <v>9.879251520185358</v>
       </c>
       <c r="D19">
-        <v>5.992257891458823</v>
+        <v>4.154220296017937</v>
       </c>
       <c r="E19">
-        <v>12.81872007082396</v>
+        <v>11.53368855864912</v>
       </c>
       <c r="F19">
-        <v>29.77734738449228</v>
+        <v>23.97015455491562</v>
       </c>
       <c r="G19">
-        <v>38.37531793160753</v>
+        <v>32.94871791357686</v>
       </c>
       <c r="H19">
-        <v>16.47780390929093</v>
+        <v>10.05677133627956</v>
       </c>
       <c r="I19">
-        <v>27.01166106916898</v>
+        <v>19.62528038907797</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.95579968370265</v>
+        <v>29.30947726450145</v>
       </c>
       <c r="L19">
-        <v>9.581907471544074</v>
+        <v>6.751216938837549</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.958958759370089</v>
+        <v>10.04630139145595</v>
       </c>
       <c r="D20">
-        <v>5.990264987959979</v>
+        <v>4.152465842188648</v>
       </c>
       <c r="E20">
-        <v>12.84719935110576</v>
+        <v>11.7099551312519</v>
       </c>
       <c r="F20">
-        <v>29.76367593344617</v>
+        <v>24.26880846838163</v>
       </c>
       <c r="G20">
-        <v>38.3551782992987</v>
+        <v>33.42303494600408</v>
       </c>
       <c r="H20">
-        <v>16.45132962868407</v>
+        <v>10.07767897463489</v>
       </c>
       <c r="I20">
-        <v>26.98761365625545</v>
+        <v>19.80983708095426</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.18541461923903</v>
+        <v>29.8875921176849</v>
       </c>
       <c r="L20">
-        <v>9.583494871896951</v>
+        <v>6.813990494704722</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.09091485357918</v>
+        <v>10.59544288739061</v>
       </c>
       <c r="D21">
-        <v>5.984270290732724</v>
+        <v>4.149217395487886</v>
       </c>
       <c r="E21">
-        <v>12.94550479122102</v>
+        <v>12.29585447491262</v>
       </c>
       <c r="F21">
-        <v>29.73243368432152</v>
+        <v>25.31620763264649</v>
       </c>
       <c r="G21">
-        <v>38.31126316135827</v>
+        <v>35.09076362919711</v>
       </c>
       <c r="H21">
-        <v>16.36777910434118</v>
+        <v>10.17454872104261</v>
       </c>
       <c r="I21">
-        <v>26.91803351570525</v>
+        <v>20.47103316584203</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.939710798687</v>
+        <v>31.76768600674172</v>
       </c>
       <c r="L21">
-        <v>9.590885995536121</v>
+        <v>7.028422804423521</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.17747813970853</v>
+        <v>10.94529677439451</v>
       </c>
       <c r="D22">
-        <v>5.980873775522939</v>
+        <v>4.149247586776875</v>
       </c>
       <c r="E22">
-        <v>13.01163289148473</v>
+        <v>12.67397747824069</v>
       </c>
       <c r="F22">
-        <v>29.72303748535031</v>
+        <v>26.03397763225422</v>
       </c>
       <c r="G22">
-        <v>38.30042144497264</v>
+        <v>36.23642541265302</v>
       </c>
       <c r="H22">
-        <v>16.31722333375589</v>
+        <v>10.25909967284895</v>
       </c>
       <c r="I22">
-        <v>26.88097973057363</v>
+        <v>20.93471601991339</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.41922578019476</v>
+        <v>32.95100949804926</v>
       </c>
       <c r="L22">
-        <v>9.597246254628457</v>
+        <v>7.171221955354016</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.13125546798799</v>
+        <v>10.7593983084022</v>
       </c>
       <c r="D23">
-        <v>5.982638933030772</v>
+        <v>4.149022061354803</v>
       </c>
       <c r="E23">
-        <v>12.97617179748276</v>
+        <v>12.47260623336192</v>
       </c>
       <c r="F23">
-        <v>29.72703954317051</v>
+        <v>25.64781489610878</v>
       </c>
       <c r="G23">
-        <v>38.30456432014721</v>
+        <v>35.6198282188789</v>
       </c>
       <c r="H23">
-        <v>16.34383377337858</v>
+        <v>10.21193976575077</v>
       </c>
       <c r="I23">
-        <v>26.89998170209933</v>
+        <v>20.68429334249365</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.16457099355474</v>
+        <v>32.32353693482246</v>
       </c>
       <c r="L23">
-        <v>9.593711971349734</v>
+        <v>7.094761375000198</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.956809077445097</v>
+        <v>10.03717329515836</v>
       </c>
       <c r="D24">
-        <v>5.990371787578816</v>
+        <v>4.152552664101342</v>
       </c>
       <c r="E24">
-        <v>12.84562537255132</v>
+        <v>11.70029889153897</v>
       </c>
       <c r="F24">
-        <v>29.76437162969789</v>
+        <v>24.25224347940925</v>
       </c>
       <c r="G24">
-        <v>38.35619534607925</v>
+        <v>33.39670998422106</v>
       </c>
       <c r="H24">
-        <v>16.45276322039028</v>
+        <v>10.07643422777236</v>
       </c>
       <c r="I24">
-        <v>26.9888921924918</v>
+        <v>19.79954976800994</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.17286810699487</v>
+        <v>29.85608160184792</v>
       </c>
       <c r="L24">
-        <v>9.583399949667422</v>
+        <v>6.810530058584216</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.770762320836139</v>
+        <v>9.219563707654991</v>
       </c>
       <c r="D25">
-        <v>6.000959441910164</v>
+        <v>4.164485954947306</v>
       </c>
       <c r="E25">
-        <v>12.71333993058136</v>
+        <v>10.84742476664381</v>
       </c>
       <c r="F25">
-        <v>29.85146982316831</v>
+        <v>22.88673635768708</v>
       </c>
       <c r="G25">
-        <v>38.4874937260667</v>
+        <v>31.23503954050231</v>
       </c>
       <c r="H25">
-        <v>16.58748461296988</v>
+        <v>10.01241260988195</v>
       </c>
       <c r="I25">
-        <v>27.12054186276638</v>
+        <v>18.9747193585826</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.0498347364429</v>
+        <v>26.99319424286723</v>
       </c>
       <c r="L25">
-        <v>9.57886729137166</v>
+        <v>6.515212753090779</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,994 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>8.585371461861643</v>
+        <v>5.812909991761222</v>
       </c>
       <c r="D2">
-        <v>4.179205854981841</v>
+        <v>5.882797367699711</v>
       </c>
       <c r="E2">
-        <v>10.20421166044383</v>
+        <v>31.70943857099832</v>
       </c>
       <c r="F2">
-        <v>21.99842994967896</v>
+        <v>48.96028846465092</v>
       </c>
       <c r="G2">
-        <v>29.84332676235081</v>
+        <v>78.35874146206238</v>
       </c>
       <c r="H2">
-        <v>10.02595603930625</v>
+        <v>4.508623181810334</v>
       </c>
       <c r="I2">
-        <v>18.47157167137873</v>
+        <v>6.315847621610914</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>20.1151064808446</v>
       </c>
       <c r="K2">
-        <v>24.70543290970516</v>
+        <v>36.75783147786814</v>
       </c>
       <c r="L2">
-        <v>6.307497445381673</v>
-      </c>
-      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>8.136578695098889</v>
+        <v>5.476283488404602</v>
       </c>
       <c r="D3">
-        <v>4.192444343998507</v>
+        <v>5.577206301311194</v>
       </c>
       <c r="E3">
-        <v>9.760390089210613</v>
+        <v>29.60201470016274</v>
       </c>
       <c r="F3">
-        <v>21.46753170229131</v>
+        <v>45.7810165061758</v>
       </c>
       <c r="G3">
-        <v>29.02227225921015</v>
+        <v>73.07927811572756</v>
       </c>
       <c r="H3">
-        <v>10.0680649835047</v>
+        <v>4.128143873914643</v>
       </c>
       <c r="I3">
-        <v>18.19139779195628</v>
+        <v>5.896264002061199</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>18.94902316691959</v>
       </c>
       <c r="K3">
-        <v>23.03980425127521</v>
+        <v>34.47844167136921</v>
       </c>
       <c r="L3">
-        <v>6.172908933840733</v>
-      </c>
-      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>7.852214927206639</v>
+        <v>5.267365311267172</v>
       </c>
       <c r="D4">
-        <v>4.202058376739766</v>
+        <v>5.380151860579705</v>
       </c>
       <c r="E4">
-        <v>9.484726316059385</v>
+        <v>28.2455012253506</v>
       </c>
       <c r="F4">
-        <v>21.1757351873173</v>
+        <v>43.73226097665595</v>
       </c>
       <c r="G4">
-        <v>28.57692116641615</v>
+        <v>69.66585211562837</v>
       </c>
       <c r="H4">
-        <v>10.10857429564542</v>
+        <v>3.888676275709908</v>
       </c>
       <c r="I4">
-        <v>18.04776337182243</v>
+        <v>5.633010566672525</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.20232497909532</v>
       </c>
       <c r="K4">
-        <v>21.95937259976098</v>
+        <v>33.00986460339163</v>
       </c>
       <c r="L4">
-        <v>6.093374817518748</v>
-      </c>
-      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>7.734231456687889</v>
+        <v>5.185096435348498</v>
       </c>
       <c r="D5">
-        <v>4.20633331867923</v>
+        <v>5.293069502555774</v>
       </c>
       <c r="E5">
-        <v>9.371733523650056</v>
+        <v>27.67552691287525</v>
       </c>
       <c r="F5">
-        <v>21.0652497814906</v>
+        <v>42.85260716871377</v>
       </c>
       <c r="G5">
-        <v>28.40991662750121</v>
+        <v>68.19518990837844</v>
       </c>
       <c r="H5">
-        <v>10.12853757993635</v>
+        <v>3.788933465863253</v>
       </c>
       <c r="I5">
-        <v>17.99610797123878</v>
+        <v>5.522924748641722</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>17.88205005526233</v>
       </c>
       <c r="K5">
-        <v>21.50444748154114</v>
+        <v>32.37382049593457</v>
       </c>
       <c r="L5">
-        <v>6.061753709908654</v>
-      </c>
-      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>7.714517097330758</v>
+        <v>5.175744746525408</v>
       </c>
       <c r="D6">
-        <v>4.207064293657202</v>
+        <v>5.273044361392229</v>
       </c>
       <c r="E6">
-        <v>9.352935811385295</v>
+        <v>27.57836768226617</v>
       </c>
       <c r="F6">
-        <v>21.04740674663235</v>
+        <v>42.68003382897141</v>
       </c>
       <c r="G6">
-        <v>28.38304952070389</v>
+        <v>67.90407798612674</v>
       </c>
       <c r="H6">
-        <v>10.13205460167409</v>
+        <v>3.771539235082513</v>
       </c>
       <c r="I6">
-        <v>17.98793779699705</v>
+        <v>5.503076206387251</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>17.81815991783123</v>
       </c>
       <c r="K6">
-        <v>21.42801979724996</v>
+        <v>32.24231470542202</v>
       </c>
       <c r="L6">
-        <v>6.056551002307438</v>
-      </c>
-      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>7.850632111253822</v>
+        <v>5.277845346362038</v>
       </c>
       <c r="D7">
-        <v>4.202114604440228</v>
+        <v>5.364404853883564</v>
       </c>
       <c r="E7">
-        <v>9.483204923575043</v>
+        <v>28.2336610797997</v>
       </c>
       <c r="F7">
-        <v>21.17421128980186</v>
+        <v>43.65352349915783</v>
       </c>
       <c r="G7">
-        <v>28.57461072472499</v>
+        <v>69.52790767437939</v>
       </c>
       <c r="H7">
-        <v>10.10882983442522</v>
+        <v>3.88533082059444</v>
       </c>
       <c r="I7">
-        <v>18.04703925100759</v>
+        <v>5.627349108907291</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.17053369323624</v>
       </c>
       <c r="K7">
-        <v>21.95329675763639</v>
+        <v>32.9348213654789</v>
       </c>
       <c r="L7">
-        <v>6.092945154967081</v>
-      </c>
-      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>8.432513774835249</v>
+        <v>5.711538864534811</v>
       </c>
       <c r="D8">
-        <v>4.183451725531868</v>
+        <v>5.761114568881393</v>
       </c>
       <c r="E8">
-        <v>10.05191198358395</v>
+        <v>30.99010587692511</v>
       </c>
       <c r="F8">
-        <v>21.80819312540231</v>
+        <v>47.80144699559427</v>
       </c>
       <c r="G8">
-        <v>29.5478749506711</v>
+        <v>76.42832011090282</v>
       </c>
       <c r="H8">
-        <v>10.03729342788887</v>
+        <v>4.375946049420324</v>
       </c>
       <c r="I8">
-        <v>18.36892432772842</v>
+        <v>6.166586829771968</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>19.68522689146278</v>
       </c>
       <c r="K8">
-        <v>24.14302844487424</v>
+        <v>35.90387383830262</v>
       </c>
       <c r="L8">
-        <v>6.260452706739408</v>
-      </c>
-      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>9.500076854860975</v>
+        <v>6.529905363297585</v>
       </c>
       <c r="D9">
-        <v>4.159480100619579</v>
+        <v>6.487981108763704</v>
       </c>
       <c r="E9">
-        <v>11.1372474941475</v>
+        <v>35.91686512494874</v>
       </c>
       <c r="F9">
-        <v>23.32830310034164</v>
+        <v>55.28127856423395</v>
       </c>
       <c r="G9">
-        <v>31.93190618041974</v>
+        <v>88.8041575663166</v>
       </c>
       <c r="H9">
-        <v>10.02388852908821</v>
+        <v>5.299345371975832</v>
       </c>
       <c r="I9">
-        <v>19.23587572849023</v>
+        <v>7.192365560278477</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.45435441575681</v>
       </c>
       <c r="K9">
-        <v>27.98507381908727</v>
+        <v>41.28688823651871</v>
       </c>
       <c r="L9">
-        <v>6.613189900270765</v>
-      </c>
-      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>10.23625409494442</v>
+        <v>7.096983695870521</v>
       </c>
       <c r="D10">
-        <v>4.150899421275229</v>
+        <v>6.907646974281402</v>
       </c>
       <c r="E10">
-        <v>11.91152680888113</v>
+        <v>38.37301729541538</v>
       </c>
       <c r="F10">
-        <v>24.61987799807017</v>
+        <v>60.01878559574607</v>
       </c>
       <c r="G10">
-        <v>33.98136580456445</v>
+        <v>96.55967899849684</v>
       </c>
       <c r="H10">
-        <v>10.10627976731434</v>
+        <v>5.906691318258617</v>
       </c>
       <c r="I10">
-        <v>20.02917971017767</v>
+        <v>7.901838107765928</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>24.20881488796971</v>
       </c>
       <c r="K10">
-        <v>30.54131825434639</v>
+        <v>44.67357343661369</v>
       </c>
       <c r="L10">
-        <v>6.886784019398096</v>
-      </c>
-      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>10.56038680705476</v>
+        <v>7.067502869415318</v>
       </c>
       <c r="D11">
-        <v>4.149306336646395</v>
+        <v>6.53656139063956</v>
       </c>
       <c r="E11">
-        <v>12.25816787719773</v>
+        <v>32.01369723415007</v>
       </c>
       <c r="F11">
-        <v>25.24641135532859</v>
+        <v>59.58938851759952</v>
       </c>
       <c r="G11">
-        <v>34.97946233571319</v>
+        <v>95.50910082633204</v>
       </c>
       <c r="H11">
-        <v>10.16706273622336</v>
+        <v>6.121877389399819</v>
       </c>
       <c r="I11">
-        <v>20.42636860930753</v>
+        <v>8.00090075768021</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.92319237038825</v>
       </c>
       <c r="K11">
-        <v>31.64852768342465</v>
+        <v>44.23857626067489</v>
       </c>
       <c r="L11">
-        <v>7.014374027391453</v>
-      </c>
-      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>10.68157614111442</v>
+        <v>6.945582178991816</v>
       </c>
       <c r="D12">
-        <v>4.149069221777276</v>
+        <v>6.154540445503683</v>
       </c>
       <c r="E12">
-        <v>12.3886095032697</v>
+        <v>26.33170114242166</v>
       </c>
       <c r="F12">
-        <v>25.48935772093635</v>
+        <v>58.30439331301253</v>
       </c>
       <c r="G12">
-        <v>35.36696436663748</v>
+        <v>93.16476360359303</v>
       </c>
       <c r="H12">
-        <v>10.19370238764975</v>
+        <v>6.667947351712311</v>
       </c>
       <c r="I12">
-        <v>20.58217414702758</v>
+        <v>7.956931447595459</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>23.34824488120335</v>
       </c>
       <c r="K12">
-        <v>32.05999318305512</v>
+        <v>43.24960205737396</v>
       </c>
       <c r="L12">
-        <v>7.063144013090309</v>
-      </c>
-      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>10.65554482844167</v>
+        <v>6.759596617349029</v>
       </c>
       <c r="D13">
-        <v>4.149103416313243</v>
+        <v>5.71478533473969</v>
       </c>
       <c r="E13">
-        <v>12.36055330714553</v>
+        <v>20.80849829880476</v>
       </c>
       <c r="F13">
-        <v>25.43678013714477</v>
+        <v>56.16657479524615</v>
       </c>
       <c r="G13">
-        <v>35.28308261829402</v>
+        <v>89.47696823982619</v>
       </c>
       <c r="H13">
-        <v>10.18779961935904</v>
+        <v>7.418804429433083</v>
       </c>
       <c r="I13">
-        <v>20.54837568935847</v>
+        <v>7.796206737138607</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.46719509295739</v>
       </c>
       <c r="K13">
-        <v>31.97172090894016</v>
+        <v>41.66779540582962</v>
       </c>
       <c r="L13">
-        <v>7.052620181163078</v>
-      </c>
-      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>10.57038822109568</v>
+        <v>6.6076699770052</v>
       </c>
       <c r="D14">
-        <v>4.149279280747692</v>
+        <v>5.374297284271546</v>
       </c>
       <c r="E14">
-        <v>12.26891594173557</v>
+        <v>17.18138599150659</v>
       </c>
       <c r="F14">
-        <v>25.2662840622376</v>
+        <v>54.24565338162169</v>
       </c>
       <c r="G14">
-        <v>35.01115045695046</v>
+        <v>86.21852184928868</v>
       </c>
       <c r="H14">
-        <v>10.16918023841612</v>
+        <v>8.048260173260154</v>
       </c>
       <c r="I14">
-        <v>20.43907760723094</v>
+        <v>7.633148309243734</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>21.6961249696819</v>
       </c>
       <c r="K14">
-        <v>31.68253458959709</v>
+        <v>40.25960648560918</v>
       </c>
       <c r="L14">
-        <v>7.01837721044094</v>
-      </c>
-      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>10.51802523560089</v>
+        <v>6.553416711249346</v>
       </c>
       <c r="D15">
-        <v>4.14943576861992</v>
+        <v>5.273915562295554</v>
       </c>
       <c r="E15">
-        <v>12.21267787164474</v>
+        <v>16.31968848113629</v>
       </c>
       <c r="F15">
-        <v>25.1625944189285</v>
+        <v>53.57889533110642</v>
       </c>
       <c r="G15">
-        <v>34.84583026403143</v>
+        <v>85.08883979985283</v>
       </c>
       <c r="H15">
-        <v>10.15825515546838</v>
+        <v>8.189483658985774</v>
       </c>
       <c r="I15">
-        <v>20.37283772034838</v>
+        <v>7.565631965580523</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>21.43234096595934</v>
       </c>
       <c r="K15">
-        <v>31.5043883511086</v>
+        <v>39.76474102122882</v>
       </c>
       <c r="L15">
-        <v>6.997461808980927</v>
-      </c>
-      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>10.21485393033977</v>
+        <v>6.353780472717843</v>
       </c>
       <c r="D16">
-        <v>4.151052824791996</v>
+        <v>5.15892643169177</v>
       </c>
       <c r="E16">
-        <v>11.88875836615194</v>
+        <v>15.95536887157105</v>
       </c>
       <c r="F16">
-        <v>24.57972397698717</v>
+        <v>51.87513169011457</v>
       </c>
       <c r="G16">
-        <v>33.91746812435229</v>
+        <v>82.31697222171528</v>
       </c>
       <c r="H16">
-        <v>10.10279955949093</v>
+        <v>7.864260032458469</v>
       </c>
       <c r="I16">
-        <v>20.00396831665121</v>
+        <v>7.300960829506918</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>20.81459684236982</v>
       </c>
       <c r="K16">
-        <v>30.46785581467513</v>
+        <v>38.54795355809759</v>
       </c>
       <c r="L16">
-        <v>6.878508938062419</v>
-      </c>
-      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>10.02610363687235</v>
+        <v>6.278535459298322</v>
       </c>
       <c r="D17">
-        <v>4.152659363407055</v>
+        <v>5.255681818584082</v>
       </c>
       <c r="E17">
-        <v>11.68859251874192</v>
+        <v>17.58900354301581</v>
       </c>
       <c r="F17">
-        <v>24.23219297669755</v>
+        <v>51.59973768808423</v>
       </c>
       <c r="G17">
-        <v>33.36484837919089</v>
+        <v>81.96477037005569</v>
       </c>
       <c r="H17">
-        <v>10.07494062244215</v>
+        <v>7.224423085234691</v>
       </c>
       <c r="I17">
-        <v>19.78710563151399</v>
+        <v>7.181625411721043</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>20.76052792232814</v>
       </c>
       <c r="K17">
-        <v>29.81785664506208</v>
+        <v>38.37928926428095</v>
       </c>
       <c r="L17">
-        <v>6.806338252296136</v>
-      </c>
-      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>9.916526167655922</v>
+        <v>6.31696496636966</v>
       </c>
       <c r="D18">
-        <v>4.153798582674087</v>
+        <v>5.559160589308978</v>
       </c>
       <c r="E18">
-        <v>11.57293684890704</v>
+        <v>21.62287319569155</v>
       </c>
       <c r="F18">
-        <v>24.03596646033823</v>
+        <v>52.59254043599334</v>
       </c>
       <c r="G18">
-        <v>33.05318228476135</v>
+        <v>83.78084195212774</v>
       </c>
       <c r="H18">
-        <v>10.06109393601632</v>
+        <v>6.359693560187901</v>
       </c>
       <c r="I18">
-        <v>19.66577950304573</v>
+        <v>7.184016560559743</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.21082918314324</v>
       </c>
       <c r="K18">
-        <v>29.43874504660554</v>
+        <v>39.1558894209186</v>
       </c>
       <c r="L18">
-        <v>6.76512168362162</v>
-      </c>
-      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>9.879251520185358</v>
+        <v>6.48259252979553</v>
       </c>
       <c r="D19">
-        <v>4.154220296017937</v>
+        <v>5.984676916403672</v>
       </c>
       <c r="E19">
-        <v>11.53368855864912</v>
+        <v>27.56225837072638</v>
       </c>
       <c r="F19">
-        <v>23.97015455491562</v>
+        <v>54.42045275496923</v>
       </c>
       <c r="G19">
-        <v>32.94871791357686</v>
+        <v>87.01328474911564</v>
       </c>
       <c r="H19">
-        <v>10.05677133627956</v>
+        <v>5.662715362699918</v>
       </c>
       <c r="I19">
-        <v>19.62528038907797</v>
+        <v>7.29125792741684</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>21.9846859750307</v>
       </c>
       <c r="K19">
-        <v>29.30947726450145</v>
+        <v>40.52525368217884</v>
       </c>
       <c r="L19">
-        <v>6.751216938837549</v>
-      </c>
-      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>10.04630139145595</v>
+        <v>6.974858732038028</v>
       </c>
       <c r="D20">
-        <v>4.152465842188648</v>
+        <v>6.759373452742865</v>
       </c>
       <c r="E20">
-        <v>11.7099551312519</v>
+        <v>37.68505164761185</v>
       </c>
       <c r="F20">
-        <v>24.26880846838163</v>
+        <v>58.61762863543142</v>
       </c>
       <c r="G20">
-        <v>33.42303494600408</v>
+        <v>94.25560629948079</v>
       </c>
       <c r="H20">
-        <v>10.07767897463489</v>
+        <v>5.739061570764042</v>
       </c>
       <c r="I20">
-        <v>19.80983708095426</v>
+        <v>7.703250129021743</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>23.68176381469968</v>
       </c>
       <c r="K20">
-        <v>29.8875921176849</v>
+        <v>43.6275757052282</v>
       </c>
       <c r="L20">
-        <v>6.813990494704722</v>
-      </c>
-      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>10.59544288739061</v>
+        <v>7.462549857700725</v>
       </c>
       <c r="D21">
-        <v>4.149217395487886</v>
+        <v>7.173861734743431</v>
       </c>
       <c r="E21">
-        <v>12.29585447491262</v>
+        <v>40.86423188850762</v>
       </c>
       <c r="F21">
-        <v>25.31620763264649</v>
+        <v>62.67754257423389</v>
       </c>
       <c r="G21">
-        <v>35.09076362919711</v>
+        <v>100.8248857065312</v>
       </c>
       <c r="H21">
-        <v>10.17454872104261</v>
+        <v>6.281567089414788</v>
       </c>
       <c r="I21">
-        <v>20.47103316584203</v>
+        <v>8.287878922344801</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25.2062214266344</v>
       </c>
       <c r="K21">
-        <v>31.76768600674172</v>
+        <v>46.50133713644951</v>
       </c>
       <c r="L21">
-        <v>7.028422804423521</v>
-      </c>
-      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>10.94529677439451</v>
+        <v>7.753455715882865</v>
       </c>
       <c r="D22">
-        <v>4.149247586776875</v>
+        <v>7.419366383030315</v>
       </c>
       <c r="E22">
-        <v>12.67397747824069</v>
+        <v>42.44737907079404</v>
       </c>
       <c r="F22">
-        <v>26.03397763225422</v>
+        <v>65.18638117355707</v>
       </c>
       <c r="G22">
-        <v>36.23642541265302</v>
+        <v>104.8517145933606</v>
       </c>
       <c r="H22">
-        <v>10.25909967284895</v>
+        <v>6.611444878957203</v>
       </c>
       <c r="I22">
-        <v>20.93471601991339</v>
+        <v>8.661976765639405</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>26.21047107532991</v>
       </c>
       <c r="K22">
-        <v>32.95100949804926</v>
+        <v>48.27834124186466</v>
       </c>
       <c r="L22">
-        <v>7.171221955354016</v>
-      </c>
-      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>10.7593983084022</v>
+        <v>7.587632000774676</v>
       </c>
       <c r="D23">
-        <v>4.149022061354803</v>
+        <v>7.302809185747021</v>
       </c>
       <c r="E23">
-        <v>12.47260623336192</v>
+        <v>41.61156609943358</v>
       </c>
       <c r="F23">
-        <v>25.64781489610878</v>
+        <v>63.91510647452507</v>
       </c>
       <c r="G23">
-        <v>35.6198282188789</v>
+        <v>102.8146616070682</v>
       </c>
       <c r="H23">
-        <v>10.21193976575077</v>
+        <v>6.43788090518054</v>
       </c>
       <c r="I23">
-        <v>20.68429334249365</v>
+        <v>8.466806490537023</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25.70366540176704</v>
       </c>
       <c r="K23">
-        <v>32.32353693482246</v>
+        <v>47.39506173968277</v>
       </c>
       <c r="L23">
-        <v>7.094761375000198</v>
-      </c>
-      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>10.03717329515836</v>
+        <v>6.980055552219549</v>
       </c>
       <c r="D24">
-        <v>4.152552664101342</v>
+        <v>6.824472738623094</v>
       </c>
       <c r="E24">
-        <v>11.70029889153897</v>
+        <v>38.34926912667931</v>
       </c>
       <c r="F24">
-        <v>24.25224347940925</v>
+        <v>58.87705132810981</v>
       </c>
       <c r="G24">
-        <v>33.39670998422106</v>
+        <v>94.71733778978042</v>
       </c>
       <c r="H24">
-        <v>10.07643422777236</v>
+        <v>5.774674911021537</v>
       </c>
       <c r="I24">
-        <v>19.79954976800994</v>
+        <v>7.720751183124425</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>23.79257025786025</v>
       </c>
       <c r="K24">
-        <v>29.85608160184792</v>
+        <v>43.84765795980478</v>
       </c>
       <c r="L24">
-        <v>6.810530058584216</v>
-      </c>
-      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>9.219563707654991</v>
+        <v>6.327339094549222</v>
       </c>
       <c r="D25">
-        <v>4.164485954947306</v>
+        <v>6.276165985042516</v>
       </c>
       <c r="E25">
-        <v>10.84742476664381</v>
+        <v>34.62685944458541</v>
       </c>
       <c r="F25">
-        <v>22.88673635768708</v>
+        <v>53.23496014724807</v>
       </c>
       <c r="G25">
-        <v>31.23503954050231</v>
+        <v>85.41593450689959</v>
       </c>
       <c r="H25">
-        <v>10.01241260988195</v>
+        <v>5.04980410184011</v>
       </c>
       <c r="I25">
-        <v>18.9747193585826</v>
+        <v>6.911040494880504</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>21.68851031977197</v>
       </c>
       <c r="K25">
-        <v>26.99319424286723</v>
+        <v>39.78553483420202</v>
       </c>
       <c r="L25">
-        <v>6.515212753090779</v>
-      </c>
-      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,988 +421,1138 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.812909991761222</v>
+        <v>7.80965504426495</v>
       </c>
       <c r="D2">
-        <v>5.882797367699711</v>
+        <v>4.721351915487376</v>
       </c>
       <c r="E2">
-        <v>31.70943857099832</v>
+        <v>31.02325130062541</v>
       </c>
       <c r="F2">
-        <v>48.96028846465092</v>
+        <v>43.00011966743077</v>
       </c>
       <c r="G2">
-        <v>78.35874146206238</v>
+        <v>67.58421418928675</v>
       </c>
       <c r="H2">
-        <v>4.508623181810334</v>
+        <v>4.171896468234095</v>
       </c>
       <c r="I2">
-        <v>6.315847621610914</v>
+        <v>5.620940830106976</v>
       </c>
       <c r="J2">
-        <v>20.1151064808446</v>
+        <v>18.2287611273295</v>
       </c>
       <c r="K2">
-        <v>36.75783147786814</v>
+        <v>30.92381528031235</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>25.37085815767042</v>
+      </c>
+      <c r="M2">
+        <v>21.70912978288945</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.476283488404602</v>
+        <v>7.254248523902715</v>
       </c>
       <c r="D3">
-        <v>5.577206301311194</v>
+        <v>4.537502148438471</v>
       </c>
       <c r="E3">
-        <v>29.60201470016274</v>
+        <v>29.01186468340735</v>
       </c>
       <c r="F3">
-        <v>45.7810165061758</v>
+        <v>40.39875012971426</v>
       </c>
       <c r="G3">
-        <v>73.07927811572756</v>
+        <v>63.24789390160382</v>
       </c>
       <c r="H3">
-        <v>4.128143873914643</v>
+        <v>3.839529955568398</v>
       </c>
       <c r="I3">
-        <v>5.896264002061199</v>
+        <v>5.301108205815008</v>
       </c>
       <c r="J3">
-        <v>18.94902316691959</v>
+        <v>17.31484231500535</v>
       </c>
       <c r="K3">
-        <v>34.47844167136921</v>
+        <v>29.21005986426844</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>24.4379435251969</v>
+      </c>
+      <c r="M3">
+        <v>20.00042202461961</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.267365311267172</v>
+        <v>6.903319987125582</v>
       </c>
       <c r="D4">
-        <v>5.380151860579705</v>
+        <v>4.418148880532309</v>
       </c>
       <c r="E4">
-        <v>28.2455012253506</v>
+        <v>27.71344270128144</v>
       </c>
       <c r="F4">
-        <v>43.73226097665595</v>
+        <v>38.7192121471845</v>
       </c>
       <c r="G4">
-        <v>69.66585211562837</v>
+        <v>60.44007182197024</v>
       </c>
       <c r="H4">
-        <v>3.888676275709908</v>
+        <v>3.629466177602757</v>
       </c>
       <c r="I4">
-        <v>5.633010566672525</v>
+        <v>5.099544855362606</v>
       </c>
       <c r="J4">
-        <v>18.20232497909532</v>
+        <v>16.72728490363859</v>
       </c>
       <c r="K4">
-        <v>33.00986460339163</v>
+        <v>28.10388502763423</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>23.83083155020637</v>
+      </c>
+      <c r="M4">
+        <v>18.89976112251792</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.185096435348498</v>
+        <v>6.766443561902663</v>
       </c>
       <c r="D5">
-        <v>5.293069502555774</v>
+        <v>4.364338093110107</v>
       </c>
       <c r="E5">
-        <v>27.67552691287525</v>
+        <v>27.16736185600618</v>
       </c>
       <c r="F5">
-        <v>42.85260716871377</v>
+        <v>37.99589337435961</v>
       </c>
       <c r="G5">
-        <v>68.19518990837844</v>
+        <v>59.22662297362409</v>
       </c>
       <c r="H5">
-        <v>3.788933465863253</v>
+        <v>3.541842532193019</v>
       </c>
       <c r="I5">
-        <v>5.522924748641722</v>
+        <v>5.015242923474672</v>
       </c>
       <c r="J5">
-        <v>17.88205005526233</v>
+        <v>16.47400966657735</v>
       </c>
       <c r="K5">
-        <v>32.37382049593457</v>
+        <v>27.62168619486932</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>23.56141295119077</v>
+      </c>
+      <c r="M5">
+        <v>18.42463634971353</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.175744746525408</v>
+        <v>6.754155138868209</v>
       </c>
       <c r="D6">
-        <v>5.273044361392229</v>
+        <v>4.350949515575334</v>
       </c>
       <c r="E6">
-        <v>27.57836768226617</v>
+        <v>27.07458475047426</v>
       </c>
       <c r="F6">
-        <v>42.68003382897141</v>
+        <v>37.85212006175206</v>
       </c>
       <c r="G6">
-        <v>67.90407798612674</v>
+        <v>58.98300819690869</v>
       </c>
       <c r="H6">
-        <v>3.771539235082513</v>
+        <v>3.526634516422076</v>
       </c>
       <c r="I6">
-        <v>5.503076206387251</v>
+        <v>5.000315521954588</v>
       </c>
       <c r="J6">
-        <v>17.81815991783123</v>
+        <v>16.42258366928559</v>
       </c>
       <c r="K6">
-        <v>32.24231470542202</v>
+        <v>27.51877072528577</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>23.49980237360397</v>
+      </c>
+      <c r="M6">
+        <v>18.32795838778108</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.277845346362038</v>
+        <v>6.921470063581311</v>
       </c>
       <c r="D7">
-        <v>5.364404853883564</v>
+        <v>4.398473439414176</v>
       </c>
       <c r="E7">
-        <v>28.2336610797997</v>
+        <v>27.70168866370545</v>
       </c>
       <c r="F7">
-        <v>43.65352349915783</v>
+        <v>38.61342968681741</v>
       </c>
       <c r="G7">
-        <v>69.52790767437939</v>
+        <v>60.39731958576407</v>
       </c>
       <c r="H7">
-        <v>3.88533082059444</v>
+        <v>3.626065386435923</v>
       </c>
       <c r="I7">
-        <v>5.627349108907291</v>
+        <v>5.094679840696377</v>
       </c>
       <c r="J7">
-        <v>18.17053369323624</v>
+        <v>16.61688897409407</v>
       </c>
       <c r="K7">
-        <v>32.9348213654789</v>
+        <v>28.01307623429263</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>23.76476295670297</v>
+      </c>
+      <c r="M7">
+        <v>18.82830735059657</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.711538864534811</v>
+        <v>7.629422046703413</v>
       </c>
       <c r="D8">
-        <v>5.761114568881393</v>
+        <v>4.62172860260128</v>
       </c>
       <c r="E8">
-        <v>30.99010587692511</v>
+        <v>30.33454618243688</v>
       </c>
       <c r="F8">
-        <v>47.80144699559427</v>
+        <v>41.93511589289293</v>
       </c>
       <c r="G8">
-        <v>76.42832011090282</v>
+        <v>66.23352349946656</v>
       </c>
       <c r="H8">
-        <v>4.375946049420324</v>
+        <v>4.054327753798232</v>
       </c>
       <c r="I8">
-        <v>6.166586829771968</v>
+        <v>5.50432902138101</v>
       </c>
       <c r="J8">
-        <v>19.68522689146278</v>
+        <v>17.63017530716349</v>
       </c>
       <c r="K8">
-        <v>35.90387383830262</v>
+        <v>30.19264759677389</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>24.94440369492609</v>
+      </c>
+      <c r="M8">
+        <v>21.01422388362772</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.529905363297585</v>
+        <v>8.925869017288502</v>
       </c>
       <c r="D9">
-        <v>6.487981108763704</v>
+        <v>5.053754042303106</v>
       </c>
       <c r="E9">
-        <v>35.91686512494874</v>
+        <v>35.00998872379132</v>
       </c>
       <c r="F9">
-        <v>55.28127856423395</v>
+        <v>48.02333010991799</v>
       </c>
       <c r="G9">
-        <v>88.8041575663166</v>
+        <v>76.40923006095109</v>
       </c>
       <c r="H9">
-        <v>5.299345371975832</v>
+        <v>4.854440593612533</v>
       </c>
       <c r="I9">
-        <v>7.192365560278477</v>
+        <v>6.278680356512354</v>
       </c>
       <c r="J9">
-        <v>22.45435441575681</v>
+        <v>19.74805163674464</v>
       </c>
       <c r="K9">
-        <v>41.28688823651871</v>
+        <v>34.22394855307639</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>27.12628575735661</v>
+      </c>
+      <c r="M9">
+        <v>25.07515233370493</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.096983695870521</v>
+        <v>9.741160508155792</v>
       </c>
       <c r="D10">
-        <v>6.907646974281402</v>
+        <v>5.251987946287374</v>
       </c>
       <c r="E10">
-        <v>38.37301729541538</v>
+        <v>37.26317988717668</v>
       </c>
       <c r="F10">
-        <v>60.01878559574607</v>
+        <v>51.67356046353109</v>
       </c>
       <c r="G10">
-        <v>96.55967899849684</v>
+        <v>83.0862116441441</v>
       </c>
       <c r="H10">
-        <v>5.906691318258617</v>
+        <v>5.36885494281344</v>
       </c>
       <c r="I10">
-        <v>7.901838107765928</v>
+        <v>6.802662086968775</v>
       </c>
       <c r="J10">
-        <v>24.20881488796971</v>
+        <v>20.6753296835243</v>
       </c>
       <c r="K10">
-        <v>44.67357343661369</v>
+        <v>36.6124811919498</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>28.33953859204014</v>
+      </c>
+      <c r="M10">
+        <v>27.67165882177422</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.067502869415318</v>
+        <v>9.507526303692282</v>
       </c>
       <c r="D11">
-        <v>6.53656139063956</v>
+        <v>4.866201738094486</v>
       </c>
       <c r="E11">
-        <v>32.01369723415007</v>
+        <v>30.79549236177882</v>
       </c>
       <c r="F11">
-        <v>59.58938851759952</v>
+        <v>50.85722498980169</v>
       </c>
       <c r="G11">
-        <v>95.50910082633204</v>
+        <v>82.82727436612183</v>
       </c>
       <c r="H11">
-        <v>6.121877389399819</v>
+        <v>5.609382459829818</v>
       </c>
       <c r="I11">
-        <v>8.00090075768021</v>
+        <v>6.872177251388369</v>
       </c>
       <c r="J11">
-        <v>23.92319237038825</v>
+        <v>19.54929735320357</v>
       </c>
       <c r="K11">
-        <v>44.23857626067489</v>
+        <v>35.93075099059921</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>27.59907250741607</v>
+      </c>
+      <c r="M11">
+        <v>27.44755494439917</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>6.945582178991816</v>
+        <v>9.155611223958211</v>
       </c>
       <c r="D12">
-        <v>6.154540445503683</v>
+        <v>4.544377816131879</v>
       </c>
       <c r="E12">
-        <v>26.33170114242166</v>
+        <v>25.01966141602169</v>
       </c>
       <c r="F12">
-        <v>58.30439331301253</v>
+        <v>49.57974143506071</v>
       </c>
       <c r="G12">
-        <v>93.16476360359303</v>
+        <v>81.14968905025509</v>
       </c>
       <c r="H12">
-        <v>6.667947351712311</v>
+        <v>6.224958461097696</v>
       </c>
       <c r="I12">
-        <v>7.956931447595459</v>
+        <v>6.840407878954884</v>
       </c>
       <c r="J12">
-        <v>23.34824488120335</v>
+        <v>18.6677380218542</v>
       </c>
       <c r="K12">
-        <v>43.24960205737396</v>
+        <v>34.99873662743563</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>26.82632423084605</v>
+      </c>
+      <c r="M12">
+        <v>26.83822818166153</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.759596617349029</v>
+        <v>8.730268300209278</v>
       </c>
       <c r="D13">
-        <v>5.71478533473969</v>
+        <v>4.243952426744319</v>
       </c>
       <c r="E13">
-        <v>20.80849829880476</v>
+        <v>19.39282522890674</v>
       </c>
       <c r="F13">
-        <v>56.16657479524615</v>
+        <v>47.83104704522704</v>
       </c>
       <c r="G13">
-        <v>89.47696823982619</v>
+        <v>77.93806229932306</v>
       </c>
       <c r="H13">
-        <v>7.418804429433083</v>
+        <v>7.059492290896956</v>
       </c>
       <c r="I13">
-        <v>7.796206737138607</v>
+        <v>6.728487917919924</v>
       </c>
       <c r="J13">
-        <v>22.46719509295739</v>
+        <v>18.03735916956752</v>
       </c>
       <c r="K13">
-        <v>41.66779540582962</v>
+        <v>33.77043982412989</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>25.94498384344848</v>
+      </c>
+      <c r="M13">
+        <v>25.86125347662361</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6.6076699770052</v>
+        <v>8.404305395243416</v>
       </c>
       <c r="D14">
-        <v>5.374297284271546</v>
+        <v>4.037975240575914</v>
       </c>
       <c r="E14">
-        <v>17.18138599150659</v>
+        <v>15.67338162499376</v>
       </c>
       <c r="F14">
-        <v>54.24565338162169</v>
+        <v>46.35505889182343</v>
       </c>
       <c r="G14">
-        <v>86.21852184928868</v>
+        <v>74.93627170882974</v>
       </c>
       <c r="H14">
-        <v>8.048260173260154</v>
+        <v>7.745696481558122</v>
       </c>
       <c r="I14">
-        <v>7.633148309243734</v>
+        <v>6.615328486064453</v>
       </c>
       <c r="J14">
-        <v>21.6961249696819</v>
+        <v>17.68826212867537</v>
       </c>
       <c r="K14">
-        <v>40.25960648560918</v>
+        <v>32.74575206760225</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>25.25647225821171</v>
+      </c>
+      <c r="M14">
+        <v>24.9878242730254</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.553416711249346</v>
+        <v>8.310550555814686</v>
       </c>
       <c r="D15">
-        <v>5.273915562295554</v>
+        <v>3.98581240074307</v>
       </c>
       <c r="E15">
-        <v>16.31968848113629</v>
+        <v>14.79750513048375</v>
       </c>
       <c r="F15">
-        <v>53.57889533110642</v>
+        <v>45.86583360289539</v>
       </c>
       <c r="G15">
-        <v>85.08883979985283</v>
+        <v>73.8452164643715</v>
       </c>
       <c r="H15">
-        <v>8.189483658985774</v>
+        <v>7.902224025141042</v>
       </c>
       <c r="I15">
-        <v>7.565631965580523</v>
+        <v>6.568508056671534</v>
       </c>
       <c r="J15">
-        <v>21.43234096595934</v>
+        <v>17.63523147169504</v>
       </c>
       <c r="K15">
-        <v>39.76474102122882</v>
+        <v>32.40748189988671</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>25.0468252756074</v>
+      </c>
+      <c r="M15">
+        <v>24.67527941607844</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.353780472717843</v>
+        <v>8.094363622225851</v>
       </c>
       <c r="D16">
-        <v>5.15892643169177</v>
+        <v>3.988483398652408</v>
       </c>
       <c r="E16">
-        <v>15.95536887157105</v>
+        <v>14.55407473368932</v>
       </c>
       <c r="F16">
-        <v>51.87513169011457</v>
+        <v>44.80423295553351</v>
       </c>
       <c r="G16">
-        <v>82.31697222171528</v>
+        <v>70.90232208019573</v>
       </c>
       <c r="H16">
-        <v>7.864260032458469</v>
+        <v>7.600203834123868</v>
       </c>
       <c r="I16">
-        <v>7.300960829506918</v>
+        <v>6.380005344067455</v>
       </c>
       <c r="J16">
-        <v>20.81459684236982</v>
+        <v>17.9195461914998</v>
       </c>
       <c r="K16">
-        <v>38.54795355809759</v>
+        <v>31.73193349825759</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>24.77143136254604</v>
+      </c>
+      <c r="M16">
+        <v>23.84403082275931</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.278535459298322</v>
+        <v>8.098843183254413</v>
       </c>
       <c r="D17">
-        <v>5.255681818584082</v>
+        <v>4.096291084418594</v>
       </c>
       <c r="E17">
-        <v>17.58900354301581</v>
+        <v>16.33064222684872</v>
       </c>
       <c r="F17">
-        <v>51.59973768808423</v>
+        <v>44.75366757733829</v>
       </c>
       <c r="G17">
-        <v>81.96477037005569</v>
+        <v>70.37205650849663</v>
       </c>
       <c r="H17">
-        <v>7.224423085234691</v>
+        <v>6.95015180800353</v>
       </c>
       <c r="I17">
-        <v>7.181625411721043</v>
+        <v>6.29218917580294</v>
       </c>
       <c r="J17">
-        <v>20.76052792232814</v>
+        <v>18.23021357979638</v>
       </c>
       <c r="K17">
-        <v>38.37928926428095</v>
+        <v>31.7422938189851</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>24.9153420814071</v>
+      </c>
+      <c r="M17">
+        <v>23.65596815392225</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.31696496636966</v>
+        <v>8.305353580435135</v>
       </c>
       <c r="D18">
-        <v>5.559160589308978</v>
+        <v>4.332943379931582</v>
       </c>
       <c r="E18">
-        <v>21.62287319569155</v>
+        <v>20.50981499569883</v>
       </c>
       <c r="F18">
-        <v>52.59254043599334</v>
+        <v>45.68584169066121</v>
       </c>
       <c r="G18">
-        <v>83.78084195212774</v>
+        <v>71.84313292090107</v>
       </c>
       <c r="H18">
-        <v>6.359693560187901</v>
+        <v>6.038924139119517</v>
       </c>
       <c r="I18">
-        <v>7.184016560559743</v>
+        <v>6.290217889224435</v>
       </c>
       <c r="J18">
-        <v>21.21082918314324</v>
+        <v>18.76139706695215</v>
       </c>
       <c r="K18">
-        <v>39.1558894209186</v>
+        <v>32.43829894464573</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>25.5052227223464</v>
+      </c>
+      <c r="M18">
+        <v>24.08148147544683</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.48259252979553</v>
+        <v>8.722597423803929</v>
       </c>
       <c r="D19">
-        <v>5.984676916403672</v>
+        <v>4.649429981061201</v>
       </c>
       <c r="E19">
-        <v>27.56225837072638</v>
+        <v>26.53978249888063</v>
       </c>
       <c r="F19">
-        <v>54.42045275496923</v>
+        <v>47.26208152524899</v>
       </c>
       <c r="G19">
-        <v>87.01328474911564</v>
+        <v>74.58309848372922</v>
       </c>
       <c r="H19">
-        <v>5.662715362699918</v>
+        <v>5.265532581689742</v>
       </c>
       <c r="I19">
-        <v>7.29125792741684</v>
+        <v>6.366026838660775</v>
       </c>
       <c r="J19">
-        <v>21.9846859750307</v>
+        <v>19.44787980038419</v>
       </c>
       <c r="K19">
-        <v>40.52525368217884</v>
+        <v>33.55275789602398</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>26.35135008630211</v>
+      </c>
+      <c r="M19">
+        <v>24.91423264076716</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.974858732038028</v>
+        <v>9.618586551682769</v>
       </c>
       <c r="D20">
-        <v>6.759373452742865</v>
+        <v>5.190648320597242</v>
       </c>
       <c r="E20">
-        <v>37.68505164761185</v>
+        <v>36.63829882494529</v>
       </c>
       <c r="F20">
-        <v>58.61762863543142</v>
+        <v>50.68065016002381</v>
       </c>
       <c r="G20">
-        <v>94.25560629948079</v>
+        <v>80.8791222894633</v>
       </c>
       <c r="H20">
-        <v>5.739061570764042</v>
+        <v>5.229959255093832</v>
       </c>
       <c r="I20">
-        <v>7.703250129021743</v>
+        <v>6.662921439610169</v>
       </c>
       <c r="J20">
-        <v>23.68176381469968</v>
+        <v>20.61379032014227</v>
       </c>
       <c r="K20">
-        <v>43.6275757052282</v>
+        <v>35.91774834038738</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>27.96881759994249</v>
+      </c>
+      <c r="M20">
+        <v>26.94345442868195</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.462549857700725</v>
+        <v>10.20417655431364</v>
       </c>
       <c r="D21">
-        <v>7.173861734743431</v>
+        <v>5.301551894437427</v>
       </c>
       <c r="E21">
-        <v>40.86423188850762</v>
+        <v>39.62979684483035</v>
       </c>
       <c r="F21">
-        <v>62.67754257423389</v>
+        <v>53.26174192896745</v>
       </c>
       <c r="G21">
-        <v>100.8248857065312</v>
+        <v>87.63934406206191</v>
       </c>
       <c r="H21">
-        <v>6.281567089414788</v>
+        <v>5.680915504169064</v>
       </c>
       <c r="I21">
-        <v>8.287878922344801</v>
+        <v>7.071805800598222</v>
       </c>
       <c r="J21">
-        <v>25.2062214266344</v>
+        <v>20.2219360804139</v>
       </c>
       <c r="K21">
-        <v>46.50133713644951</v>
+        <v>37.60513567583806</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>28.80282077732925</v>
+      </c>
+      <c r="M21">
+        <v>28.80946283816039</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>7.753455715882865</v>
+        <v>10.51867043418645</v>
       </c>
       <c r="D22">
-        <v>7.419366383030315</v>
+        <v>5.349831875746102</v>
       </c>
       <c r="E22">
-        <v>42.44737907079404</v>
+        <v>41.08357084994145</v>
       </c>
       <c r="F22">
-        <v>65.18638117355707</v>
+        <v>54.79428433185463</v>
       </c>
       <c r="G22">
-        <v>104.8517145933606</v>
+        <v>91.86758472622842</v>
       </c>
       <c r="H22">
-        <v>6.611444878957203</v>
+        <v>5.950763318662094</v>
       </c>
       <c r="I22">
-        <v>8.661976765639405</v>
+        <v>7.329955896135373</v>
       </c>
       <c r="J22">
-        <v>26.21047107532991</v>
+        <v>19.86008928252244</v>
       </c>
       <c r="K22">
-        <v>48.27834124186466</v>
+        <v>38.61613694781359</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>29.2861041285419</v>
+      </c>
+      <c r="M22">
+        <v>29.94237059212754</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.587632000774676</v>
+        <v>10.3420049404101</v>
       </c>
       <c r="D23">
-        <v>7.302809185747021</v>
+        <v>5.351029344750112</v>
       </c>
       <c r="E23">
-        <v>41.61156609943358</v>
+        <v>40.31814024220905</v>
       </c>
       <c r="F23">
-        <v>63.91510647452507</v>
+        <v>54.10440425987309</v>
       </c>
       <c r="G23">
-        <v>102.8146616070682</v>
+        <v>89.56524836153183</v>
       </c>
       <c r="H23">
-        <v>6.43788090518054</v>
+        <v>5.809993479436951</v>
       </c>
       <c r="I23">
-        <v>8.466806490537023</v>
+        <v>7.19693662470381</v>
       </c>
       <c r="J23">
-        <v>25.70366540176704</v>
+        <v>20.24531805556117</v>
       </c>
       <c r="K23">
-        <v>47.39506173968277</v>
+        <v>38.18313341324267</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>29.10627253230745</v>
+      </c>
+      <c r="M23">
+        <v>29.41935298227714</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.980055552219549</v>
+        <v>9.622373358159294</v>
       </c>
       <c r="D24">
-        <v>6.824472738623094</v>
+        <v>5.243156043629167</v>
       </c>
       <c r="E24">
-        <v>38.34926912667931</v>
+        <v>37.30114488693781</v>
       </c>
       <c r="F24">
-        <v>58.87705132810981</v>
+        <v>50.91083156427513</v>
       </c>
       <c r="G24">
-        <v>94.71733778978042</v>
+        <v>81.26906846159719</v>
       </c>
       <c r="H24">
-        <v>5.774674911021537</v>
+        <v>5.262232766809192</v>
       </c>
       <c r="I24">
-        <v>7.720751183124425</v>
+        <v>6.673806566853657</v>
       </c>
       <c r="J24">
-        <v>23.79257025786025</v>
+        <v>20.72184278674058</v>
       </c>
       <c r="K24">
-        <v>43.84765795980478</v>
+        <v>36.10712622566317</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>28.11514137681228</v>
+      </c>
+      <c r="M24">
+        <v>27.08274061141505</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>6.327339094549222</v>
+        <v>8.636557421077999</v>
       </c>
       <c r="D25">
-        <v>6.276165985042516</v>
+        <v>4.932878643128266</v>
       </c>
       <c r="E25">
-        <v>34.62685944458541</v>
+        <v>33.79406251594001</v>
       </c>
       <c r="F25">
-        <v>53.23496014724807</v>
+        <v>46.39808688676017</v>
       </c>
       <c r="G25">
-        <v>85.41593450689959</v>
+        <v>73.52050548638806</v>
       </c>
       <c r="H25">
-        <v>5.04980410184011</v>
+        <v>4.640614017242748</v>
       </c>
       <c r="I25">
-        <v>6.911040494880504</v>
+        <v>6.070334543499463</v>
       </c>
       <c r="J25">
-        <v>21.68851031977197</v>
+        <v>19.26358020421766</v>
       </c>
       <c r="K25">
-        <v>39.78553483420202</v>
+        <v>33.11941604061133</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>26.52013776402002</v>
+      </c>
+      <c r="M25">
+        <v>23.94273926967114</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
